--- a/Diagram.xlsx
+++ b/Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHub\ha_arduino_sh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D063F0E7-EE56-4E4F-83DA-35A1AB1FD4ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A055F-BFD6-43A6-A973-A92A3A37C43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DEABEC9D-B3BA-44E7-8FD5-80397BD4DEF3}"/>
   </bookViews>
@@ -916,7 +916,11 @@
     </dgm:pt>
     <dgm:pt modelId="{502386A2-D292-460A-828F-F90EDAB3A33C}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -992,7 +996,11 @@
     </dgm:pt>
     <dgm:pt modelId="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1064,7 +1072,11 @@
     </dgm:pt>
     <dgm:pt modelId="{7E207781-6F07-4338-8CE4-BCABD45C9D04}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1100,14 +1112,18 @@
     </dgm:pt>
     <dgm:pt modelId="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU"/>
-            <a:t>Завершение работы ОС малины</a:t>
+            <a:t>Установка сигнала завершения работы ОС малины</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1136,7 +1152,11 @@
     </dgm:pt>
     <dgm:pt modelId="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1172,7 +1192,11 @@
     </dgm:pt>
     <dgm:pt modelId="{052746E2-35AE-4596-B49E-915582515DEF}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1210,7 +1234,7 @@
       <dgm:prSet phldrT="[Текст]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -1259,7 +1283,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU"/>
-            <a:t>Снятие сигнала завершения работы ОС малины</a:t>
+            <a:t>Мигаем светодиодом</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1290,7 +1314,7 @@
       <dgm:prSet phldrT="[Текст]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -1299,7 +1323,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU"/>
-            <a:t>Если малина выключена, то включаем её</a:t>
+            <a:t>Снятие сигнала завершения работы ОС малины</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1328,7 +1352,11 @@
     </dgm:pt>
     <dgm:pt modelId="{E579B731-3249-46A2-8AEA-C0C419514ACD}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1364,7 +1392,11 @@
     </dgm:pt>
     <dgm:pt modelId="{9A788F97-7178-4C13-A376-56C7BA7DBC74}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1400,7 +1432,11 @@
     </dgm:pt>
     <dgm:pt modelId="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1438,7 +1474,7 @@
       <dgm:prSet phldrT="[Текст]"/>
       <dgm:spPr>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -1447,7 +1483,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU"/>
-            <a:t>Мигаем светодиодом</a:t>
+            <a:t>Подаём питание на малину</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1512,7 +1548,11 @@
     </dgm:pt>
     <dgm:pt modelId="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1548,7 +1588,11 @@
     </dgm:pt>
     <dgm:pt modelId="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}">
       <dgm:prSet phldrT="[Текст]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1572,6 +1616,127 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D2986C6C-DCDC-48E0-8323-826AB121C0A7}" type="sibTrans" cxnId="{4FF8D821-118A-4407-ACC4-8427EADF4E44}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}">
+      <dgm:prSet phldrT="[Текст]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU"/>
+            <a:t>Выросло входное напряжение и не отжата кнопка</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4C145C39-35ED-49E0-BB2A-C16FDFADBD0D}" type="parTrans" cxnId="{6FB438EE-5F25-45A8-AB61-FF78AC8955B2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{621A7640-EAE4-4C3F-847B-3924C9437D0B}" type="sibTrans" cxnId="{6FB438EE-5F25-45A8-AB61-FF78AC8955B2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}">
+      <dgm:prSet phldrT="[Текст]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU"/>
+            <a:t>Выдержка условия по счётчику 1</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BC743F89-84CC-4FD4-87C7-2EF49053D96E}" type="parTrans" cxnId="{0B3901CE-2166-4CA9-A450-65A2D7DC25BD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9B32445B-614F-4F3C-8BBC-2FB98886B8FD}" type="sibTrans" cxnId="{0B3901CE-2166-4CA9-A450-65A2D7DC25BD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{33991F01-31B4-41DF-AA40-138E68B94E21}">
+      <dgm:prSet phldrT="[Текст]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU"/>
+            <a:t>Выдержка условия по счётчику </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{225D5A82-135C-4A28-BA4D-90783D2D087B}" type="parTrans" cxnId="{BA1D3354-DB48-4DD2-97A9-912235D9DACF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{374F0E94-0A23-4A64-AB7F-78EFE98BB1A3}" type="sibTrans" cxnId="{BA1D3354-DB48-4DD2-97A9-912235D9DACF}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1623,8 +1788,440 @@
       <dgm:prSet presAssocID="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" presName="hierChild2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{FA4F7265-DC00-4775-B267-75D9CFD467D4}" type="pres">
+      <dgm:prSet presAssocID="{DD4C4E2A-C449-4904-95DC-772E9F8FB0DB}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" type="pres">
+      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{74AA30D6-2AC3-4114-B816-4F346D3C795E}" type="pres">
+      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B5B01E53-A3C2-4361-9EF5-14D4A5CD494E}" type="pres">
+      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{24671D78-28A3-413C-8170-7E6A50EEF46C}" type="pres">
+      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" type="pres">
+      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{09241FA8-A4CC-435C-A06D-20EC18D60E51}" type="pres">
+      <dgm:prSet presAssocID="{BC743F89-84CC-4FD4-87C7-2EF49053D96E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C80D69A2-4988-4321-8AFC-687012C98310}" type="pres">
+      <dgm:prSet presAssocID="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FC797222-298C-44A1-9E14-47E6EB32CED1}" type="pres">
+      <dgm:prSet presAssocID="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8FC8280A-5F2C-46BB-9A10-6EE1F208ECC7}" type="pres">
+      <dgm:prSet presAssocID="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2196E1B7-315D-459B-AE5B-00BCC310A0FD}" type="pres">
+      <dgm:prSet presAssocID="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{71B19355-C277-4A51-8306-8F9A024EEC13}" type="pres">
+      <dgm:prSet presAssocID="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{81054589-C70E-443F-9F04-CCA63391790D}" type="pres">
+      <dgm:prSet presAssocID="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AD6E2D00-01A4-4215-84E5-B13631ACF8D1}" type="pres">
+      <dgm:prSet presAssocID="{13E431AA-4097-4BA8-A52A-FFBA0E581051}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" type="pres">
+      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A4FF1C61-BD64-43FD-8DA7-A735A88E0694}" type="pres">
+      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5BF88FF6-9DFD-4AC8-8A16-2C35CF475A62}" type="pres">
+      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{312E7874-F7D2-44C3-BA27-16F76D819E00}" type="pres">
+      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7388FC8E-F444-436D-9450-718B95AD8A91}" type="pres">
+      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1FC81177-B2C7-44C4-B0D9-739BE6F442EB}" type="pres">
+      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{46B51BE7-FE7D-4458-8074-4109AFCDF84D}" type="pres">
+      <dgm:prSet presAssocID="{70E2D273-EA4B-4AF7-B273-8F3130D97EEA}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" type="pres">
+      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F236B6F7-889C-422C-98A8-CB6287103759}" type="pres">
+      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{79DF38A6-3C7F-490A-80F7-D37D9B816EB0}" type="pres">
+      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EF5B9E51-905E-4C26-8BF5-221DB70B6AE1}" type="pres">
+      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{02ED24DD-BCB1-4AC6-AF1E-4CFA2A89F746}" type="pres">
+      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D8F97A13-3659-484D-B692-17B5FB0F4D29}" type="pres">
+      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{113D2A74-AE3C-44A5-A3E4-37D0E338A9D4}" type="pres">
+      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{120A195E-63F0-48D8-AB4C-8B344F1D0D39}" type="pres">
+      <dgm:prSet presAssocID="{57160C57-F88E-42D7-9BB7-EE97950FE56A}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" type="pres">
+      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E0F8186E-9CC4-4A6E-BF0F-337E64254198}" type="pres">
+      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{91376554-53E3-4E4C-8159-1E384A1451E0}" type="pres">
+      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="rootText" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6E35C6A9-80B9-4F75-A7A1-11036773F3CB}" type="pres">
+      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" type="pres">
+      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9CFFFB56-617E-4130-8F9C-E688AAACC9AB}" type="pres">
+      <dgm:prSet presAssocID="{474F7E1E-87A7-48E3-BE4F-6F9503DF52E2}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" type="pres">
+      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{596FB3DA-AB82-482E-B312-73312EC77D79}" type="pres">
+      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6615EE38-7E53-40E4-8137-3772D64F6395}" type="pres">
+      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D03D9B7B-672C-4F9D-83D3-E769812ED4F9}" type="pres">
+      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9E70B117-F7A5-4E06-9CAE-B381B4633804}" type="pres">
+      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{48F7A32D-E9B2-4C5A-B0B8-525EE9417F1B}" type="pres">
+      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{67E74EB0-17DC-4F82-8C9E-0D39E72F9E92}" type="pres">
+      <dgm:prSet presAssocID="{D4B82152-1D0C-42BB-A704-2BFD8F4F5A2E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1B8ED305-1348-4538-888F-2682109B56E1}" type="pres">
+      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A4804E0C-91DB-42D0-85E1-4A5F0AF8D58E}" type="pres">
+      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F0DD16A-0C11-4F77-BD37-9A87B880573B}" type="pres">
+      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{842359A9-6879-49EB-A9C2-64FFFE67A990}" type="pres">
+      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{08970006-FA8A-4B0D-A061-197F9C058BA3}" type="pres">
+      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1B77ECAD-5A39-4A0E-9CF5-4C2B4EF7F637}" type="pres">
+      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{66E74247-82A5-4BE5-811F-A5955C17E725}" type="pres">
+      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{73D97EFB-F263-419D-8CE2-E0E6D299657B}" type="pres">
+      <dgm:prSet presAssocID="{63E45DEA-A546-49F1-8FF8-6A67982CC2DD}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" type="pres">
+      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E470973A-26E3-4993-B32B-888B75EE3C40}" type="pres">
+      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EA3031DA-452E-48AB-8884-90DD9B9FE4B3}" type="pres">
+      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D21580A5-D397-45B3-80E9-28A8C4974FE1}" type="pres">
+      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" type="pres">
+      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AB784F33-57F7-4C6D-AB0F-5B4E36F64BE9}" type="pres">
+      <dgm:prSet presAssocID="{225D5A82-135C-4A28-BA4D-90783D2D087B}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{51EF208B-EED9-42A7-A02C-9494C378348C}" type="pres">
+      <dgm:prSet presAssocID="{33991F01-31B4-41DF-AA40-138E68B94E21}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F4C0F99-FEE8-4208-80CB-9122D6AE24E0}" type="pres">
+      <dgm:prSet presAssocID="{33991F01-31B4-41DF-AA40-138E68B94E21}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{285059D4-2F2E-47C5-A13B-CBC2DFC58F67}" type="pres">
+      <dgm:prSet presAssocID="{33991F01-31B4-41DF-AA40-138E68B94E21}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F9E6EAA4-9D7F-4E74-8327-739D12A3E9E3}" type="pres">
+      <dgm:prSet presAssocID="{33991F01-31B4-41DF-AA40-138E68B94E21}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3C461E55-F975-460D-A59C-1C4AA4718E5F}" type="pres">
+      <dgm:prSet presAssocID="{33991F01-31B4-41DF-AA40-138E68B94E21}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{663031A8-E8AA-471D-A655-53E7FB9FC7ED}" type="pres">
+      <dgm:prSet presAssocID="{33991F01-31B4-41DF-AA40-138E68B94E21}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3D7919E7-5D17-42DF-9E4C-BF8179D7258F}" type="pres">
+      <dgm:prSet presAssocID="{C8870DD3-9AB4-4D36-9C56-840DE7B1CA30}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{361D6233-757F-479B-BDB4-0BFC918005D8}" type="pres">
+      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8E9D4D91-9885-441C-9B30-7DA0A7844A56}" type="pres">
+      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA0B823-77B8-405D-ADDD-4E8C84435BD6}" type="pres">
+      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{445AFF96-378B-4189-9DBA-225F308C482E}" type="pres">
+      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A33BB459-580A-47A0-BA57-A88B97FAB012}" type="pres">
+      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{36C9881D-39D4-444B-B83F-61C2687E362C}" type="pres">
+      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E973EB2C-DFF9-4FF3-8A65-B0E7B00CA824}" type="pres">
+      <dgm:prSet presAssocID="{588AC4C3-5AC0-4FA3-852F-C6E415E2E87D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" type="pres">
+      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D23974EF-7343-42C6-B022-0873DB31464D}" type="pres">
+      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9E67B9C0-C5BD-4B78-B5DE-B36BEC695084}" type="pres">
+      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{12981B9F-B7DE-454C-AEC8-DFE63567AAE7}" type="pres">
+      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{43854EC4-58BB-4D0F-95B4-DE28BED754CA}" type="pres">
+      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{03EFFF9F-53E6-4230-9352-C36A6925C376}" type="pres">
+      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{24F1A71B-7A94-43F2-9560-4A3ED8512987}" type="pres">
+      <dgm:prSet presAssocID="{578C3072-7D68-4099-BD4F-BFBA935D8ABB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" type="pres">
+      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8502D447-C01A-446C-B4FA-8FA05ABD122E}" type="pres">
+      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3E6AE8F6-5471-4856-95DC-F5889B864C8D}" type="pres">
+      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="rootText" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="16">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{01D2A1C9-25C9-4939-BFDF-D03CD0EFBD56}" type="pres">
+      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9D63A18F-C603-4CB4-987E-985D937E7A41}" type="pres">
+      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D370F1D9-3518-49A7-8DFD-CBE0057A4E0D}" type="pres">
+      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{23BCB62B-2101-483D-AB6D-FDCC5D8F0ACC}" type="pres">
+      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{74720BDC-17CE-4522-8393-2E0C61317C57}" type="pres">
-      <dgm:prSet presAssocID="{CE788F7C-8CBA-4E2C-A02B-2C3A50F6034C}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{CE788F7C-8CBA-4E2C-A02B-2C3A50F6034C}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" type="pres">
@@ -1640,7 +2237,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C6CF2AFF-1826-4D66-8828-453EA18CEF24}" type="pres">
-      <dgm:prSet presAssocID="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5">
+      <dgm:prSet presAssocID="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" presName="rootText" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="6">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1648,7 +2245,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{30889E66-01C5-4C33-992C-2E402AB3D57D}" type="pres">
-      <dgm:prSet presAssocID="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" type="pres">
@@ -1656,7 +2253,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{64A5E671-AF1B-4F9F-A8EE-E3FA2FF66886}" type="pres">
-      <dgm:prSet presAssocID="{9296DDD8-A147-4C37-8D86-8AD73AA70755}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{9296DDD8-A147-4C37-8D86-8AD73AA70755}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="16"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" type="pres">
@@ -1672,7 +2269,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3F9D0AA9-4977-4BA7-8F45-A803064E709C}" type="pres">
-      <dgm:prSet presAssocID="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="14">
+      <dgm:prSet presAssocID="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" presName="rootText" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="16">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1680,7 +2277,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A329A831-2AC3-4BC8-80F9-C5258C07FE6D}" type="pres">
-      <dgm:prSet presAssocID="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="16"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{45CF87F3-4A0C-4FC5-BCE9-4659AF808E38}" type="pres">
@@ -1692,7 +2289,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{69ED22EF-22E3-471A-8564-55F307A34590}" type="pres">
-      <dgm:prSet presAssocID="{3EE3D0A3-D7CC-4967-BA98-4C22F5B11532}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{3EE3D0A3-D7CC-4967-BA98-4C22F5B11532}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="16"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" type="pres">
@@ -1708,7 +2305,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{903372A5-C12B-4630-A721-25CCF0DB2C46}" type="pres">
-      <dgm:prSet presAssocID="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="14">
+      <dgm:prSet presAssocID="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" presName="rootText" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="16">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1716,7 +2313,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{671DD9F9-BAD1-4938-8998-E8781880471B}" type="pres">
-      <dgm:prSet presAssocID="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="16"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4E657AC1-CF67-4E35-B335-DEDDCEBB8A89}" type="pres">
@@ -1728,7 +2325,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1C15A1DD-0285-4887-B165-FF74E04D0949}" type="pres">
-      <dgm:prSet presAssocID="{B3A47076-28D2-4982-AC7C-E46C5F8499D4}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{B3A47076-28D2-4982-AC7C-E46C5F8499D4}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="16"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" type="pres">
@@ -1744,7 +2341,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BAB5EA54-AF8D-4102-8F0A-665560F8B412}" type="pres">
-      <dgm:prSet presAssocID="{E579B731-3249-46A2-8AEA-C0C419514ACD}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="14">
+      <dgm:prSet presAssocID="{E579B731-3249-46A2-8AEA-C0C419514ACD}" presName="rootText" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="16">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1752,7 +2349,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{10B5C5C3-5223-4C8B-89C4-B013299DAE4D}" type="pres">
-      <dgm:prSet presAssocID="{E579B731-3249-46A2-8AEA-C0C419514ACD}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{E579B731-3249-46A2-8AEA-C0C419514ACD}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="16"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{640F531F-FF27-4536-A3D6-7725E077BC56}" type="pres">
@@ -1767,368 +2364,152 @@
       <dgm:prSet presAssocID="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{FA4F7265-DC00-4775-B267-75D9CFD467D4}" type="pres">
-      <dgm:prSet presAssocID="{DD4C4E2A-C449-4904-95DC-772E9F8FB0DB}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" type="pres">
-      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{F94818B3-73D7-4223-9750-9FDA7ADAD87D}" type="pres">
+      <dgm:prSet presAssocID="{4C145C39-35ED-49E0-BB2A-C16FDFADBD0D}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D850F931-9CF8-4B07-A991-3DE4F044066D}" type="pres">
+      <dgm:prSet presAssocID="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{74AA30D6-2AC3-4114-B816-4F346D3C795E}" type="pres">
-      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B5B01E53-A3C2-4361-9EF5-14D4A5CD494E}" type="pres">
-      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="rootText" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5">
+    <dgm:pt modelId="{4A358A32-17F2-49AF-BD1B-1600315DFB4F}" type="pres">
+      <dgm:prSet presAssocID="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FE5B2CF9-00CD-48A6-9F83-42A39772587F}" type="pres">
+      <dgm:prSet presAssocID="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" presName="rootText" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="6">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{24671D78-28A3-413C-8170-7E6A50EEF46C}" type="pres">
-      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" type="pres">
-      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{AD6E2D00-01A4-4215-84E5-B13631ACF8D1}" type="pres">
-      <dgm:prSet presAssocID="{13E431AA-4097-4BA8-A52A-FFBA0E581051}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" type="pres">
-      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{B71AE4D1-1E4C-4F1F-97D1-8C2B4FDDCA08}" type="pres">
+      <dgm:prSet presAssocID="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B230B44B-8AE2-4053-A79C-5774958D6EC6}" type="pres">
+      <dgm:prSet presAssocID="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8BDAD81F-8000-4771-BAE6-0D4BFA7F5175}" type="pres">
+      <dgm:prSet presAssocID="{7419D0D7-338A-4AA2-A99D-7DDBD1B31A13}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="12" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" type="pres">
+      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{A4FF1C61-BD64-43FD-8DA7-A735A88E0694}" type="pres">
-      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{5BF88FF6-9DFD-4AC8-8A16-2C35CF475A62}" type="pres">
-      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="14">
+    <dgm:pt modelId="{87B42DC9-AF16-4840-95D1-7580C0152F88}" type="pres">
+      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{77952155-E0FD-4EE2-96B1-D088254C9B59}" type="pres">
+      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="rootText" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="16">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{312E7874-F7D2-44C3-BA27-16F76D819E00}" type="pres">
-      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{7388FC8E-F444-436D-9450-718B95AD8A91}" type="pres">
-      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1FC81177-B2C7-44C4-B0D9-739BE6F442EB}" type="pres">
-      <dgm:prSet presAssocID="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{46B51BE7-FE7D-4458-8074-4109AFCDF84D}" type="pres">
-      <dgm:prSet presAssocID="{70E2D273-EA4B-4AF7-B273-8F3130D97EEA}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" type="pres">
-      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{7F2A31E2-397D-4422-9507-B8B1BD254951}" type="pres">
+      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63DB5D1A-915F-4707-A090-4DF863E50708}" type="pres">
+      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FE83F513-0E75-4548-B54A-FC9500C403B6}" type="pres">
+      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F479933D-53B5-4E64-90CC-2D4C0B79ED01}" type="pres">
+      <dgm:prSet presAssocID="{A9EDF692-0A2F-4052-915D-F5B59BAF487B}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="13" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" type="pres">
+      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{F236B6F7-889C-422C-98A8-CB6287103759}" type="pres">
-      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{79DF38A6-3C7F-490A-80F7-D37D9B816EB0}" type="pres">
-      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="14">
+    <dgm:pt modelId="{CACCD6F3-0214-46C9-858F-510E913D8CCF}" type="pres">
+      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{54F6C9DE-A44C-4C0B-9FDB-36A5506EE2AF}" type="pres">
+      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="rootText" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="16">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{EF5B9E51-905E-4C26-8BF5-221DB70B6AE1}" type="pres">
-      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{02ED24DD-BCB1-4AC6-AF1E-4CFA2A89F746}" type="pres">
-      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D8F97A13-3659-484D-B692-17B5FB0F4D29}" type="pres">
-      <dgm:prSet presAssocID="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{113D2A74-AE3C-44A5-A3E4-37D0E338A9D4}" type="pres">
-      <dgm:prSet presAssocID="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{120A195E-63F0-48D8-AB4C-8B344F1D0D39}" type="pres">
-      <dgm:prSet presAssocID="{57160C57-F88E-42D7-9BB7-EE97950FE56A}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" type="pres">
-      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{C0E40011-B632-4811-89D2-059E24C62CBA}" type="pres">
+      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{23D495C1-75FA-446A-87D0-BE829333E8B3}" type="pres">
+      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3EB96572-B8F5-4F9F-9771-C6A77F87DF5C}" type="pres">
+      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E9EE785A-AA56-4E55-8EDD-AE3836977539}" type="pres">
+      <dgm:prSet presAssocID="{0DFF668D-A809-4006-B316-88E9101F189E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="14" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" type="pres">
+      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{E0F8186E-9CC4-4A6E-BF0F-337E64254198}" type="pres">
-      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{91376554-53E3-4E4C-8159-1E384A1451E0}" type="pres">
-      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5">
+    <dgm:pt modelId="{86ECAFC2-7929-4F79-AC14-08791BEB9DA9}" type="pres">
+      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{131E6F1C-C65D-4491-9D89-3AC0C3BA2E99}" type="pres">
+      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="rootText" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="16">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{6E35C6A9-80B9-4F75-A7A1-11036773F3CB}" type="pres">
-      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" type="pres">
-      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{9CFFFB56-617E-4130-8F9C-E688AAACC9AB}" type="pres">
-      <dgm:prSet presAssocID="{474F7E1E-87A7-48E3-BE4F-6F9503DF52E2}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" type="pres">
-      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{596FB3DA-AB82-482E-B312-73312EC77D79}" type="pres">
-      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6615EE38-7E53-40E4-8137-3772D64F6395}" type="pres">
-      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="14">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D03D9B7B-672C-4F9D-83D3-E769812ED4F9}" type="pres">
-      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{9E70B117-F7A5-4E06-9CAE-B381B4633804}" type="pres">
-      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{48F7A32D-E9B2-4C5A-B0B8-525EE9417F1B}" type="pres">
-      <dgm:prSet presAssocID="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{67E74EB0-17DC-4F82-8C9E-0D39E72F9E92}" type="pres">
-      <dgm:prSet presAssocID="{D4B82152-1D0C-42BB-A704-2BFD8F4F5A2E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1B8ED305-1348-4538-888F-2682109B56E1}" type="pres">
-      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A4804E0C-91DB-42D0-85E1-4A5F0AF8D58E}" type="pres">
-      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1F0DD16A-0C11-4F77-BD37-9A87B880573B}" type="pres">
-      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="14">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{842359A9-6879-49EB-A9C2-64FFFE67A990}" type="pres">
-      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{08970006-FA8A-4B0D-A061-197F9C058BA3}" type="pres">
-      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1B77ECAD-5A39-4A0E-9CF5-4C2B4EF7F637}" type="pres">
-      <dgm:prSet presAssocID="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{66E74247-82A5-4BE5-811F-A5955C17E725}" type="pres">
-      <dgm:prSet presAssocID="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{73D97EFB-F263-419D-8CE2-E0E6D299657B}" type="pres">
-      <dgm:prSet presAssocID="{63E45DEA-A546-49F1-8FF8-6A67982CC2DD}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" type="pres">
-      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E470973A-26E3-4993-B32B-888B75EE3C40}" type="pres">
-      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{EA3031DA-452E-48AB-8884-90DD9B9FE4B3}" type="pres">
-      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="rootText" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D21580A5-D397-45B3-80E9-28A8C4974FE1}" type="pres">
-      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" type="pres">
-      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{3D7919E7-5D17-42DF-9E4C-BF8179D7258F}" type="pres">
-      <dgm:prSet presAssocID="{C8870DD3-9AB4-4D36-9C56-840DE7B1CA30}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{361D6233-757F-479B-BDB4-0BFC918005D8}" type="pres">
-      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{8E9D4D91-9885-441C-9B30-7DA0A7844A56}" type="pres">
-      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1EA0B823-77B8-405D-ADDD-4E8C84435BD6}" type="pres">
-      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="14">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{445AFF96-378B-4189-9DBA-225F308C482E}" type="pres">
-      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A33BB459-580A-47A0-BA57-A88B97FAB012}" type="pres">
-      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{36C9881D-39D4-444B-B83F-61C2687E362C}" type="pres">
-      <dgm:prSet presAssocID="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E973EB2C-DFF9-4FF3-8A65-B0E7B00CA824}" type="pres">
-      <dgm:prSet presAssocID="{588AC4C3-5AC0-4FA3-852F-C6E415E2E87D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" type="pres">
-      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D23974EF-7343-42C6-B022-0873DB31464D}" type="pres">
-      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{9E67B9C0-C5BD-4B78-B5DE-B36BEC695084}" type="pres">
-      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="rootText" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="14">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{12981B9F-B7DE-454C-AEC8-DFE63567AAE7}" type="pres">
-      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{43854EC4-58BB-4D0F-95B4-DE28BED754CA}" type="pres">
-      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{03EFFF9F-53E6-4230-9352-C36A6925C376}" type="pres">
-      <dgm:prSet presAssocID="{052746E2-35AE-4596-B49E-915582515DEF}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{24F1A71B-7A94-43F2-9560-4A3ED8512987}" type="pres">
-      <dgm:prSet presAssocID="{578C3072-7D68-4099-BD4F-BFBA935D8ABB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" type="pres">
-      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{8502D447-C01A-446C-B4FA-8FA05ABD122E}" type="pres">
-      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{3E6AE8F6-5471-4856-95DC-F5889B864C8D}" type="pres">
-      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="rootText" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="14">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{01D2A1C9-25C9-4939-BFDF-D03CD0EFBD56}" type="pres">
-      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{9D63A18F-C603-4CB4-987E-985D937E7A41}" type="pres">
-      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D370F1D9-3518-49A7-8DFD-CBE0057A4E0D}" type="pres">
-      <dgm:prSet presAssocID="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{23BCB62B-2101-483D-AB6D-FDCC5D8F0ACC}" type="pres">
-      <dgm:prSet presAssocID="{502386A2-D292-460A-828F-F90EDAB3A33C}" presName="hierChild5" presStyleCnt="0"/>
+    <dgm:pt modelId="{8290A075-2D5C-42B0-9F7D-CF79CA3A6DBD}" type="pres">
+      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="16"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{19E21C11-BC6A-4242-BD47-DC8FF9CF46B2}" type="pres">
+      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{29DC647F-D61C-44CA-A5A7-F5BD262EB5DD}" type="pres">
+      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6098E486-4633-48EA-AD6D-F39DFFAE555E}" type="pres">
+      <dgm:prSet presAssocID="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B31B1233-1A0C-4DBA-AA9F-47EED452E7DD}" type="pres">
-      <dgm:prSet presAssocID="{BB6F4DCE-C2E0-4F31-A352-64BB809F16FD}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{BB6F4DCE-C2E0-4F31-A352-64BB809F16FD}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{138911D0-D512-4830-929F-F9267A9C5CAE}" type="pres">
@@ -2144,7 +2525,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A6D2DA4A-37AB-4549-A6D1-040D546DA136}" type="pres">
-      <dgm:prSet presAssocID="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" presName="rootText" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5">
+      <dgm:prSet presAssocID="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" presName="rootText" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="6">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2152,51 +2533,15 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ECB704A2-FE9D-4E3F-B1A7-9D6DE255B3FA}" type="pres">
-      <dgm:prSet presAssocID="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" type="pres">
       <dgm:prSet presAssocID="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{8BDAD81F-8000-4771-BAE6-0D4BFA7F5175}" type="pres">
-      <dgm:prSet presAssocID="{7419D0D7-338A-4AA2-A99D-7DDBD1B31A13}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" type="pres">
-      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{87B42DC9-AF16-4840-95D1-7580C0152F88}" type="pres">
-      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{77952155-E0FD-4EE2-96B1-D088254C9B59}" type="pres">
-      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="rootText" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="14">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{7F2A31E2-397D-4422-9507-B8B1BD254951}" type="pres">
-      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{63DB5D1A-915F-4707-A090-4DF863E50708}" type="pres">
-      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{FE83F513-0E75-4548-B54A-FC9500C403B6}" type="pres">
-      <dgm:prSet presAssocID="{043C6B7B-0A55-4B92-92D8-999182109033}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
     <dgm:pt modelId="{D4B91063-D47B-4C6E-9712-C5344CD0AC7A}" type="pres">
-      <dgm:prSet presAssocID="{2D44A092-DF93-49C2-97E1-D687CC92CD24}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{2D44A092-DF93-49C2-97E1-D687CC92CD24}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="15" presStyleCnt="16"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" type="pres">
@@ -2212,7 +2557,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{906D0AE4-18EC-40AD-BFC3-C1582802AD6D}" type="pres">
-      <dgm:prSet presAssocID="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" presName="rootText" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="14">
+      <dgm:prSet presAssocID="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" presName="rootText" presStyleLbl="node3" presStyleIdx="15" presStyleCnt="16">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2220,7 +2565,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4C4DB1A9-7280-4D75-A406-0142E97D1DD5}" type="pres">
-      <dgm:prSet presAssocID="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="15" presStyleCnt="16"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{56FA1189-1A2D-4B98-AFB3-56C54EEBDC7B}" type="pres">
@@ -2231,78 +2576,6 @@
       <dgm:prSet presAssocID="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{F479933D-53B5-4E64-90CC-2D4C0B79ED01}" type="pres">
-      <dgm:prSet presAssocID="{A9EDF692-0A2F-4052-915D-F5B59BAF487B}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="12" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" type="pres">
-      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{CACCD6F3-0214-46C9-858F-510E913D8CCF}" type="pres">
-      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{54F6C9DE-A44C-4C0B-9FDB-36A5506EE2AF}" type="pres">
-      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="rootText" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="14">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C0E40011-B632-4811-89D2-059E24C62CBA}" type="pres">
-      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{23D495C1-75FA-446A-87D0-BE829333E8B3}" type="pres">
-      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{3EB96572-B8F5-4F9F-9771-C6A77F87DF5C}" type="pres">
-      <dgm:prSet presAssocID="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E9EE785A-AA56-4E55-8EDD-AE3836977539}" type="pres">
-      <dgm:prSet presAssocID="{0DFF668D-A809-4006-B316-88E9101F189E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="13" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" type="pres">
-      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{86ECAFC2-7929-4F79-AC14-08791BEB9DA9}" type="pres">
-      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{131E6F1C-C65D-4491-9D89-3AC0C3BA2E99}" type="pres">
-      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="rootText" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="14">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{8290A075-2D5C-42B0-9F7D-CF79CA3A6DBD}" type="pres">
-      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{19E21C11-BC6A-4242-BD47-DC8FF9CF46B2}" type="pres">
-      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{29DC647F-D61C-44CA-A5A7-F5BD262EB5DD}" type="pres">
-      <dgm:prSet presAssocID="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
     <dgm:pt modelId="{9513E695-EAFF-41CA-9776-EBDD76750655}" type="pres">
       <dgm:prSet presAssocID="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
@@ -2313,225 +2586,258 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{425CC601-1ACC-4413-9F89-3A6DA46B60E8}" type="presOf" srcId="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" destId="{131E6F1C-C65D-4491-9D89-3AC0C3BA2E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3B0AD901-512D-4C5D-B7EC-79295D3D8E52}" type="presOf" srcId="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" destId="{A329A831-2AC3-4BC8-80F9-C5258C07FE6D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9C84B602-5C52-470A-A96D-2361A3ACF274}" type="presOf" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{D21580A5-D397-45B3-80E9-28A8C4974FE1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{12638003-5EC5-4960-90F7-4990052C081D}" srcId="{DB142D2F-9A4E-4851-9DDC-798950D76370}" destId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" srcOrd="0" destOrd="0" parTransId="{16B0F190-9F36-4B25-AE36-03E24F1E53C2}" sibTransId="{38D97CC8-4E9E-4770-A3FF-4FCCD9EBFBEC}"/>
-    <dgm:cxn modelId="{35CCA20A-C5B3-435E-823B-05ECFE580923}" type="presOf" srcId="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" destId="{842359A9-6879-49EB-A9C2-64FFFE67A990}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F12240C-ADED-4BEF-958B-E60FFC9DE265}" type="presOf" srcId="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" destId="{903372A5-C12B-4630-A721-25CCF0DB2C46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EDA85319-DBCF-44C4-8052-009922D01E70}" type="presOf" srcId="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" destId="{3F9D0AA9-4977-4BA7-8F45-A803064E709C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F4CE4021-31A5-478A-8537-BAA51C31EFEE}" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" srcOrd="1" destOrd="0" parTransId="{70E2D273-EA4B-4AF7-B273-8F3130D97EEA}" sibTransId="{B4045557-0401-450A-830B-802CF120A24D}"/>
+    <dgm:cxn modelId="{77939003-79B3-43D3-BDEB-7DFAF107D175}" type="presOf" srcId="{D4B82152-1D0C-42BB-A704-2BFD8F4F5A2E}" destId="{67E74EB0-17DC-4F82-8C9E-0D39E72F9E92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B99E9106-B8F8-435D-AB78-934E8B2A124C}" type="presOf" srcId="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" destId="{8290A075-2D5C-42B0-9F7D-CF79CA3A6DBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FFB5020E-70E3-4273-B8D5-863BBDB83477}" type="presOf" srcId="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" destId="{8FC8280A-5F2C-46BB-9A10-6EE1F208ECC7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D8100E11-A237-412C-AB95-98147612C09D}" type="presOf" srcId="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" destId="{3F9D0AA9-4977-4BA7-8F45-A803064E709C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{52146D13-49B6-40F1-A093-1A15C63020BC}" type="presOf" srcId="{33991F01-31B4-41DF-AA40-138E68B94E21}" destId="{F9E6EAA4-9D7F-4E74-8327-739D12A3E9E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0B2D7A1D-787A-49C0-9A9F-6B95E75EDAC1}" type="presOf" srcId="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" destId="{79DF38A6-3C7F-490A-80F7-D37D9B816EB0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7E1CE51F-BE66-46EA-B2D6-CAB5556D809E}" type="presOf" srcId="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" destId="{1EA0B823-77B8-405D-ADDD-4E8C84435BD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F4CE4021-31A5-478A-8537-BAA51C31EFEE}" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" srcOrd="2" destOrd="0" parTransId="{70E2D273-EA4B-4AF7-B273-8F3130D97EEA}" sibTransId="{B4045557-0401-450A-830B-802CF120A24D}"/>
     <dgm:cxn modelId="{4FF8D821-118A-4407-ACC4-8427EADF4E44}" srcId="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" destId="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" srcOrd="1" destOrd="0" parTransId="{D4B82152-1D0C-42BB-A704-2BFD8F4F5A2E}" sibTransId="{D2986C6C-DCDC-48E0-8323-826AB121C0A7}"/>
-    <dgm:cxn modelId="{375D9B22-F3C2-4144-BCE7-9D45CDFFFE9A}" type="presOf" srcId="{BB6F4DCE-C2E0-4F31-A352-64BB809F16FD}" destId="{B31B1233-1A0C-4DBA-AA9F-47EED452E7DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BC3ED823-C7B1-4465-BB58-07D69E5B5DBF}" type="presOf" srcId="{588AC4C3-5AC0-4FA3-852F-C6E415E2E87D}" destId="{E973EB2C-DFF9-4FF3-8A65-B0E7B00CA824}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9A47C424-B820-4ACD-B8A3-1397CB8B2F6B}" type="presOf" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{EA3031DA-452E-48AB-8884-90DD9B9FE4B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{64E76122-D765-41D5-87B5-0F120390830D}" type="presOf" srcId="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" destId="{1F0DD16A-0C11-4F77-BD37-9A87B880573B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DA730B24-CD4E-4E92-AB89-2ACCEFCDFAE5}" type="presOf" srcId="{7419D0D7-338A-4AA2-A99D-7DDBD1B31A13}" destId="{8BDAD81F-8000-4771-BAE6-0D4BFA7F5175}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F67F1925-09D3-461D-9B1C-C3A28B603057}" type="presOf" srcId="{57160C57-F88E-42D7-9BB7-EE97950FE56A}" destId="{120A195E-63F0-48D8-AB4C-8B344F1D0D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8360D025-73BD-4E51-BD50-72948C5AD473}" type="presOf" srcId="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" destId="{6615EE38-7E53-40E4-8137-3772D64F6395}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E4B7D426-7E26-469C-ADE7-ABE0DB8ED8C7}" srcId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" destId="{E579B731-3249-46A2-8AEA-C0C419514ACD}" srcOrd="2" destOrd="0" parTransId="{B3A47076-28D2-4982-AC7C-E46C5F8499D4}" sibTransId="{0FA850E1-D741-4C15-B670-C097D0CB69F2}"/>
-    <dgm:cxn modelId="{27B56C29-5B75-4C37-BE7A-6498F5DCC315}" type="presOf" srcId="{57160C57-F88E-42D7-9BB7-EE97950FE56A}" destId="{120A195E-63F0-48D8-AB4C-8B344F1D0D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{927BE129-CADA-4085-9A3A-98DC2D8CABB1}" type="presOf" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{B5B01E53-A3C2-4361-9EF5-14D4A5CD494E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{84C1E52A-1A86-4148-BDF5-1A1CF5B4E870}" type="presOf" srcId="{052746E2-35AE-4596-B49E-915582515DEF}" destId="{12981B9F-B7DE-454C-AEC8-DFE63567AAE7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0D1B672B-9E89-48AC-8DC5-5F0B184C8175}" type="presOf" srcId="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" destId="{C0E40011-B632-4811-89D2-059E24C62CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4D0BC12C-DC34-4363-A1FB-3AAB87F7CEC1}" type="presOf" srcId="{DD4C4E2A-C449-4904-95DC-772E9F8FB0DB}" destId="{FA4F7265-DC00-4775-B267-75D9CFD467D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6AAC052F-D487-4A24-AEFD-10C957E22923}" type="presOf" srcId="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" destId="{842359A9-6879-49EB-A9C2-64FFFE67A990}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6D901D2F-4C62-4138-B1A7-8EB75A27697B}" type="presOf" srcId="{13E431AA-4097-4BA8-A52A-FFBA0E581051}" destId="{AD6E2D00-01A4-4215-84E5-B13631ACF8D1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0CAD812F-E2F1-49A1-BD3D-D3FACCC5097F}" type="presOf" srcId="{70E2D273-EA4B-4AF7-B273-8F3130D97EEA}" destId="{46B51BE7-FE7D-4458-8074-4109AFCDF84D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E04ADD31-4373-4033-9438-6408C3FA7A4B}" type="presOf" srcId="{CE788F7C-8CBA-4E2C-A02B-2C3A50F6034C}" destId="{74720BDC-17CE-4522-8393-2E0C61317C57}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9753E233-4CDC-48EB-92AF-DA604A2F33F5}" srcId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" destId="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" srcOrd="1" destOrd="0" parTransId="{3EE3D0A3-D7CC-4967-BA98-4C22F5B11532}" sibTransId="{BBDF8192-C54E-476F-BA68-27F11272038A}"/>
-    <dgm:cxn modelId="{944ED135-61A1-4878-A935-7105CD28164F}" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" srcOrd="1" destOrd="0" parTransId="{2D44A092-DF93-49C2-97E1-D687CC92CD24}" sibTransId="{6405658F-7637-43EB-A2E0-A978380CF1F9}"/>
-    <dgm:cxn modelId="{E2641439-DA08-4AF0-8528-4FBAF906E752}" type="presOf" srcId="{70E2D273-EA4B-4AF7-B273-8F3130D97EEA}" destId="{46B51BE7-FE7D-4458-8074-4109AFCDF84D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E35FAB3A-3B37-44CC-8633-FB25AD5EF994}" type="presOf" srcId="{E579B731-3249-46A2-8AEA-C0C419514ACD}" destId="{10B5C5C3-5223-4C8B-89C4-B013299DAE4D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0C25C93A-6301-4A68-AEC9-8428C6C19ABA}" type="presOf" srcId="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" destId="{D03D9B7B-672C-4F9D-83D3-E769812ED4F9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2EE50D3D-4185-4620-A32C-6910EB3650BD}" type="presOf" srcId="{13E431AA-4097-4BA8-A52A-FFBA0E581051}" destId="{AD6E2D00-01A4-4215-84E5-B13631ACF8D1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BCFC963E-9F57-4D46-B111-EAE8C4AB7A94}" type="presOf" srcId="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" destId="{6E35C6A9-80B9-4F75-A7A1-11036773F3CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A058115C-B47C-4713-B678-8671B4DE668A}" type="presOf" srcId="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" destId="{6615EE38-7E53-40E4-8137-3772D64F6395}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3E35025F-E6DC-407A-A40A-84B2A57D47F2}" type="presOf" srcId="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" destId="{91376554-53E3-4E4C-8159-1E384A1451E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{09B45D5F-8403-44CF-A682-DCA7F5C8EF37}" type="presOf" srcId="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" destId="{4C4DB1A9-7280-4D75-A406-0142E97D1DD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8E8CF75F-C2C6-42BF-B153-84F4BB1EEEF3}" type="presOf" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{D21580A5-D397-45B3-80E9-28A8C4974FE1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DC7A9D60-17A7-427C-8E93-ABF53E1CE69A}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" srcOrd="2" destOrd="0" parTransId="{57160C57-F88E-42D7-9BB7-EE97950FE56A}" sibTransId="{B40EE7F1-F4BD-40E6-9CFE-906A92281CD8}"/>
-    <dgm:cxn modelId="{F5492E65-4963-47BD-A81C-98700D8A023E}" type="presOf" srcId="{D4B82152-1D0C-42BB-A704-2BFD8F4F5A2E}" destId="{67E74EB0-17DC-4F82-8C9E-0D39E72F9E92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E6DD9C46-3776-41EB-AA31-D482E5B4745C}" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" srcOrd="0" destOrd="0" parTransId="{13E431AA-4097-4BA8-A52A-FFBA0E581051}" sibTransId="{7F3DA2B9-4C1F-48B1-A900-7DFE18056CEF}"/>
-    <dgm:cxn modelId="{0CED9E69-87F2-4811-A305-2E1A71C1A761}" type="presOf" srcId="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" destId="{54F6C9DE-A44C-4C0B-9FDB-36A5506EE2AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8F0D8F6A-C4C6-4D06-B145-0731F51E955D}" type="presOf" srcId="{63E45DEA-A546-49F1-8FF8-6A67982CC2DD}" destId="{73D97EFB-F263-419D-8CE2-E0E6D299657B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DD63F86C-2C6E-45BB-B5E2-DECB2D1A3E0C}" type="presOf" srcId="{31DC5476-51B8-4B76-BED3-3F605C5EBD21}" destId="{1F0DD16A-0C11-4F77-BD37-9A87B880573B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{944ED135-61A1-4878-A935-7105CD28164F}" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" srcOrd="0" destOrd="0" parTransId="{2D44A092-DF93-49C2-97E1-D687CC92CD24}" sibTransId="{6405658F-7637-43EB-A2E0-A978380CF1F9}"/>
+    <dgm:cxn modelId="{CE483736-D0BB-4AB9-97D6-6AC65E9C731B}" type="presOf" srcId="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" destId="{903372A5-C12B-4630-A721-25CCF0DB2C46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0C3AAA39-0E7B-4BD5-96F0-9D6A21FDFD15}" type="presOf" srcId="{A9EDF692-0A2F-4052-915D-F5B59BAF487B}" destId="{F479933D-53B5-4E64-90CC-2D4C0B79ED01}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C4395E3C-9744-4728-AEFF-1B0FBA85EFE3}" type="presOf" srcId="{0DFF668D-A809-4006-B316-88E9101F189E}" destId="{E9EE785A-AA56-4E55-8EDD-AE3836977539}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EB708B5B-ADF3-4AA7-B9E8-EC81D1AC23FE}" type="presOf" srcId="{C8870DD3-9AB4-4D36-9C56-840DE7B1CA30}" destId="{3D7919E7-5D17-42DF-9E4C-BF8179D7258F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DC7A9D60-17A7-427C-8E93-ABF53E1CE69A}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" srcOrd="1" destOrd="0" parTransId="{57160C57-F88E-42D7-9BB7-EE97950FE56A}" sibTransId="{B40EE7F1-F4BD-40E6-9CFE-906A92281CD8}"/>
+    <dgm:cxn modelId="{9ADC8E43-B6AB-48B0-8706-4D99FE5ED20B}" type="presOf" srcId="{63E45DEA-A546-49F1-8FF8-6A67982CC2DD}" destId="{73D97EFB-F263-419D-8CE2-E0E6D299657B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{87B1A463-CC21-44B5-A48F-F7DE0BC3A242}" type="presOf" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{24671D78-28A3-413C-8170-7E6A50EEF46C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E5E2C744-7E11-4E19-89FB-720C9182834C}" type="presOf" srcId="{043C6B7B-0A55-4B92-92D8-999182109033}" destId="{77952155-E0FD-4EE2-96B1-D088254C9B59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E6DD9C46-3776-41EB-AA31-D482E5B4745C}" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" srcOrd="1" destOrd="0" parTransId="{13E431AA-4097-4BA8-A52A-FFBA0E581051}" sibTransId="{7F3DA2B9-4C1F-48B1-A900-7DFE18056CEF}"/>
+    <dgm:cxn modelId="{4C59F64C-D1EF-443F-BBB1-AE61C0B95E79}" type="presOf" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{EA3031DA-452E-48AB-8884-90DD9B9FE4B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{05D84A4D-A3C3-4A8B-945F-43791C79DB29}" srcId="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" destId="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" srcOrd="0" destOrd="0" parTransId="{474F7E1E-87A7-48E3-BE4F-6F9503DF52E2}" sibTransId="{2942185A-9BA4-453F-9AAB-ECFB607E60A8}"/>
-    <dgm:cxn modelId="{4F952E6F-21CE-41D3-832E-DB6BE207073E}" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" srcOrd="2" destOrd="0" parTransId="{578C3072-7D68-4099-BD4F-BFBA935D8ABB}" sibTransId="{D3EDD392-EAC6-4869-9F51-3E5F717745FF}"/>
-    <dgm:cxn modelId="{623F2152-DA0F-4B04-9903-02A476B46A8A}" type="presOf" srcId="{DD4C4E2A-C449-4904-95DC-772E9F8FB0DB}" destId="{FA4F7265-DC00-4775-B267-75D9CFD467D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{08948A72-8B47-44CF-8BB6-460BB1A53D59}" type="presOf" srcId="{E579B731-3249-46A2-8AEA-C0C419514ACD}" destId="{BAB5EA54-AF8D-4102-8F0A-665560F8B412}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9C520A73-69EF-441A-89BB-AFDCCC5BBBEC}" type="presOf" srcId="{2D44A092-DF93-49C2-97E1-D687CC92CD24}" destId="{D4B91063-D47B-4C6E-9712-C5344CD0AC7A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DCC56B74-0D38-4264-9BEF-561BE548B050}" type="presOf" srcId="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" destId="{01D2A1C9-25C9-4939-BFDF-D03CD0EFBD56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{04D56256-3766-42A3-99CD-91074C7D2B81}" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" srcOrd="3" destOrd="0" parTransId="{0DFF668D-A809-4006-B316-88E9101F189E}" sibTransId="{6AFDF157-4C30-4968-9571-DA882627D9C7}"/>
-    <dgm:cxn modelId="{7BF39876-F378-4E56-8CF0-535C79A88C90}" type="presOf" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{ECB704A2-FE9D-4E3F-B1A7-9D6DE255B3FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CEAEC556-FFEC-4423-B04F-328B133D591B}" type="presOf" srcId="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" destId="{79DF38A6-3C7F-490A-80F7-D37D9B816EB0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{39BCEF76-368C-489C-ABBD-679E0688429B}" type="presOf" srcId="{052746E2-35AE-4596-B49E-915582515DEF}" destId="{9E67B9C0-C5BD-4B78-B5DE-B36BEC695084}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8FE87D78-A799-40C4-A1CE-35CD3FEBE68C}" type="presOf" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{11D204D4-85E1-4064-8032-B2ACE6A99C20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7A72CA59-8402-4AE4-87E6-C43489A8846D}" type="presOf" srcId="{B3A47076-28D2-4982-AC7C-E46C5F8499D4}" destId="{1C15A1DD-0285-4887-B165-FF74E04D0949}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{03644D7C-2D01-472A-9D4F-9A244B87D827}" type="presOf" srcId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" destId="{C6CF2AFF-1826-4D66-8828-453EA18CEF24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7EE42683-29CF-4377-9BCF-54A9006D2317}" type="presOf" srcId="{A9EDF692-0A2F-4052-915D-F5B59BAF487B}" destId="{F479933D-53B5-4E64-90CC-2D4C0B79ED01}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{91BC2B83-5F5A-4146-AD9F-B137860D760C}" type="presOf" srcId="{3EE3D0A3-D7CC-4967-BA98-4C22F5B11532}" destId="{69ED22EF-22E3-471A-8564-55F307A34590}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AA52F784-5BCB-4EA8-97D5-CB237790B579}" type="presOf" srcId="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" destId="{131E6F1C-C65D-4491-9D89-3AC0C3BA2E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C2951990-CEF7-442E-AC99-3064D4EDB990}" type="presOf" srcId="{CE788F7C-8CBA-4E2C-A02B-2C3A50F6034C}" destId="{74720BDC-17CE-4522-8393-2E0C61317C57}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{25BB2791-D466-47F9-B0D8-E64224E75A86}" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{043C6B7B-0A55-4B92-92D8-999182109033}" srcOrd="0" destOrd="0" parTransId="{7419D0D7-338A-4AA2-A99D-7DDBD1B31A13}" sibTransId="{10730C03-0EE4-4DB6-B61E-1ABC25416CAD}"/>
-    <dgm:cxn modelId="{16B58E91-82BC-4EA6-B584-9DF7E27DEA9E}" type="presOf" srcId="{043C6B7B-0A55-4B92-92D8-999182109033}" destId="{77952155-E0FD-4EE2-96B1-D088254C9B59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0BD83197-4508-483B-B935-D7CC919F1B7B}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" srcOrd="0" destOrd="0" parTransId="{CE788F7C-8CBA-4E2C-A02B-2C3A50F6034C}" sibTransId="{B3D8EFA2-44BE-4101-B15A-00A6A0A996E7}"/>
-    <dgm:cxn modelId="{FA53969A-FFD4-4612-8B94-E49E784DC63C}" type="presOf" srcId="{474F7E1E-87A7-48E3-BE4F-6F9503DF52E2}" destId="{9CFFFB56-617E-4130-8F9C-E688AAACC9AB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{50DF489F-5970-4606-B1F8-E436304184C0}" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{052746E2-35AE-4596-B49E-915582515DEF}" srcOrd="1" destOrd="0" parTransId="{588AC4C3-5AC0-4FA3-852F-C6E415E2E87D}" sibTransId="{B6E2CA3A-B005-4FAA-8215-C0D75C0F85DD}"/>
-    <dgm:cxn modelId="{B1C26FA0-5133-4B51-A99B-963ECC9CAC24}" type="presOf" srcId="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" destId="{3E6AE8F6-5471-4856-95DC-F5889B864C8D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7C0AADA3-4D0F-4BF5-BAE3-9408FD754AAE}" type="presOf" srcId="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" destId="{5BF88FF6-9DFD-4AC8-8A16-2C35CF475A62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F8B7B4AC-4E33-4B7F-AC21-30555AE3BD82}" type="presOf" srcId="{578C3072-7D68-4099-BD4F-BFBA935D8ABB}" destId="{24F1A71B-7A94-43F2-9560-4A3ED8512987}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9AFE60AD-0362-4E1F-8268-9D9F58B28EF6}" type="presOf" srcId="{C8870DD3-9AB4-4D36-9C56-840DE7B1CA30}" destId="{3D7919E7-5D17-42DF-9E4C-BF8179D7258F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E68D5EB2-EE1F-4A74-A652-C281532C2C44}" type="presOf" srcId="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" destId="{EF5B9E51-905E-4C26-8BF5-221DB70B6AE1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D681084F-DE87-4B46-AC86-AE8637C6D531}" type="presOf" srcId="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" destId="{54F6C9DE-A44C-4C0B-9FDB-36A5506EE2AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4F952E6F-21CE-41D3-832E-DB6BE207073E}" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" srcOrd="3" destOrd="0" parTransId="{578C3072-7D68-4099-BD4F-BFBA935D8ABB}" sibTransId="{D3EDD392-EAC6-4869-9F51-3E5F717745FF}"/>
+    <dgm:cxn modelId="{13E60D52-3029-4906-8341-093A8C7E6288}" type="presOf" srcId="{4C145C39-35ED-49E0-BB2A-C16FDFADBD0D}" destId="{F94818B3-73D7-4223-9750-9FDA7ADAD87D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5CDC3453-D9C9-4B49-8D92-54BB03865C5D}" type="presOf" srcId="{BC743F89-84CC-4FD4-87C7-2EF49053D96E}" destId="{09241FA8-A4CC-435C-A06D-20EC18D60E51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E399D673-BAE7-40FF-A550-74E121E14EF8}" type="presOf" srcId="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" destId="{906D0AE4-18EC-40AD-BFC3-C1582802AD6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BA1D3354-DB48-4DD2-97A9-912235D9DACF}" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{33991F01-31B4-41DF-AA40-138E68B94E21}" srcOrd="0" destOrd="0" parTransId="{225D5A82-135C-4A28-BA4D-90783D2D087B}" sibTransId="{374F0E94-0A23-4A64-AB7F-78EFE98BB1A3}"/>
+    <dgm:cxn modelId="{04D56256-3766-42A3-99CD-91074C7D2B81}" srcId="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" destId="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" srcOrd="2" destOrd="0" parTransId="{0DFF668D-A809-4006-B316-88E9101F189E}" sibTransId="{6AFDF157-4C30-4968-9571-DA882627D9C7}"/>
+    <dgm:cxn modelId="{CECB6A78-025F-4A58-8F69-BA0D7846FAF2}" type="presOf" srcId="{5589A1FB-6634-4E61-8C05-61D1A4CCF827}" destId="{D03D9B7B-672C-4F9D-83D3-E769812ED4F9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B5588459-2DFE-4C3D-96F7-69B77743EF54}" type="presOf" srcId="{043C6B7B-0A55-4B92-92D8-999182109033}" destId="{7F2A31E2-397D-4422-9507-B8B1BD254951}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B36B9779-4B37-4CB6-8D00-0FE1FCA2E73D}" type="presOf" srcId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" destId="{30889E66-01C5-4C33-992C-2E402AB3D57D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFCEA57C-C93D-46DB-B092-E0D91D1A51B0}" type="presOf" srcId="{2D44A092-DF93-49C2-97E1-D687CC92CD24}" destId="{D4B91063-D47B-4C6E-9712-C5344CD0AC7A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{46FC7F88-E671-4FED-B314-B16C76BFA837}" type="presOf" srcId="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" destId="{01D2A1C9-25C9-4939-BFDF-D03CD0EFBD56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{119DC688-56A9-4206-8315-29B27081CF01}" type="presOf" srcId="{E579B731-3249-46A2-8AEA-C0C419514ACD}" destId="{BAB5EA54-AF8D-4102-8F0A-665560F8B412}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05F5268C-77DF-407E-8ABC-24B40E03FA47}" type="presOf" srcId="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" destId="{91376554-53E3-4E4C-8159-1E384A1451E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{25BB2791-D466-47F9-B0D8-E64224E75A86}" srcId="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" destId="{043C6B7B-0A55-4B92-92D8-999182109033}" srcOrd="0" destOrd="0" parTransId="{7419D0D7-338A-4AA2-A99D-7DDBD1B31A13}" sibTransId="{10730C03-0EE4-4DB6-B61E-1ABC25416CAD}"/>
+    <dgm:cxn modelId="{B7D6A995-9763-42CB-A0B8-D6B40BF7BA5E}" type="presOf" srcId="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" destId="{FE5B2CF9-00CD-48A6-9F83-42A39772587F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0BD83197-4508-483B-B935-D7CC919F1B7B}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" srcOrd="3" destOrd="0" parTransId="{CE788F7C-8CBA-4E2C-A02B-2C3A50F6034C}" sibTransId="{B3D8EFA2-44BE-4101-B15A-00A6A0A996E7}"/>
+    <dgm:cxn modelId="{F7ADB699-FC74-4923-912A-B05879118ED4}" type="presOf" srcId="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" destId="{2196E1B7-315D-459B-AE5B-00BCC310A0FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8EE8E29D-1A90-482D-8BE7-B83D9ADDEEC7}" type="presOf" srcId="{BB6F4DCE-C2E0-4F31-A352-64BB809F16FD}" destId="{B31B1233-1A0C-4DBA-AA9F-47EED452E7DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{50DF489F-5970-4606-B1F8-E436304184C0}" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{052746E2-35AE-4596-B49E-915582515DEF}" srcOrd="2" destOrd="0" parTransId="{588AC4C3-5AC0-4FA3-852F-C6E415E2E87D}" sibTransId="{B6E2CA3A-B005-4FAA-8215-C0D75C0F85DD}"/>
+    <dgm:cxn modelId="{9DF9A4A0-AAED-4F0A-8610-C3B49F00BFDD}" type="presOf" srcId="{225D5A82-135C-4A28-BA4D-90783D2D087B}" destId="{AB784F33-57F7-4C6D-AB0F-5B4E36F64BE9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4DB240A1-DC2A-43F6-B979-3F4147E8531F}" type="presOf" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{B5B01E53-A3C2-4361-9EF5-14D4A5CD494E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3425C5A5-B6FC-467A-89DB-5401F32460A4}" type="presOf" srcId="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" destId="{445AFF96-378B-4189-9DBA-225F308C482E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C03103A6-4EAE-49DB-8A8F-D4568E019A47}" type="presOf" srcId="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" destId="{B71AE4D1-1E4C-4F1F-97D1-8C2B4FDDCA08}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FA169CA7-63C8-4469-9E75-3F363012E7FD}" type="presOf" srcId="{9296DDD8-A147-4C37-8D86-8AD73AA70755}" destId="{64A5E671-AF1B-4F9F-A8EE-E3FA2FF66886}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D7B51FAC-F4EB-46A1-A911-3FDF5D0F2ED5}" type="presOf" srcId="{3EE3D0A3-D7CC-4967-BA98-4C22F5B11532}" destId="{69ED22EF-22E3-471A-8564-55F307A34590}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9A6038B4-2DA9-49D1-BF87-C89400BEE9F4}" type="presOf" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{A6D2DA4A-37AB-4549-A6D1-040D546DA136}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EF7685BD-A1BE-413F-9C46-B26C5485EC07}" type="presOf" srcId="{33991F01-31B4-41DF-AA40-138E68B94E21}" destId="{285059D4-2F2E-47C5-A13B-CBC2DFC58F67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5735E7BD-1362-438B-A2BE-95D0E4339F5F}" type="presOf" srcId="{B3A47076-28D2-4982-AC7C-E46C5F8499D4}" destId="{1C15A1DD-0285-4887-B165-FF74E04D0949}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4572A4BF-08D0-43AB-A3BE-F7D89CDB47EA}" type="presOf" srcId="{DB142D2F-9A4E-4851-9DDC-798950D76370}" destId="{F9A2A092-EE5D-40A3-93B1-DA6ECBE90FA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DE8DC5BF-E535-434A-B535-FDF5AC14D1B9}" type="presOf" srcId="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" destId="{A329A831-2AC3-4BC8-80F9-C5258C07FE6D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{17D0BEC0-A297-412C-B9B9-3211A97D8DF9}" type="presOf" srcId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" destId="{30889E66-01C5-4C33-992C-2E402AB3D57D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3C6809C4-C417-43E9-8D89-05279F25391F}" type="presOf" srcId="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" destId="{445AFF96-378B-4189-9DBA-225F308C482E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F5FDA6CB-07E1-4006-8134-A8B9D71EC0B4}" type="presOf" srcId="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" destId="{906D0AE4-18EC-40AD-BFC3-C1582802AD6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{82F1DDC3-B093-47B8-A699-68C5C251518A}" type="presOf" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{11D204D4-85E1-4064-8032-B2ACE6A99C20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{41478FC4-0941-482A-98F1-111C43075D3B}" type="presOf" srcId="{052746E2-35AE-4596-B49E-915582515DEF}" destId="{12981B9F-B7DE-454C-AEC8-DFE63567AAE7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0B3901CE-2166-4CA9-A450-65A2D7DC25BD}" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{0E82D4BE-FABB-4864-92FE-4D8DA4DB9F7D}" srcOrd="0" destOrd="0" parTransId="{BC743F89-84CC-4FD4-87C7-2EF49053D96E}" sibTransId="{9B32445B-614F-4F3C-8BBC-2FB98886B8FD}"/>
     <dgm:cxn modelId="{42DD1DCE-14FC-47EE-9B62-F210D1C5452E}" srcId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" destId="{C8A5F2C4-23BB-4308-B5C8-B538A8623C2F}" srcOrd="0" destOrd="0" parTransId="{9296DDD8-A147-4C37-8D86-8AD73AA70755}" sibTransId="{2AF069E6-22BE-4094-B64B-9C0082382D93}"/>
-    <dgm:cxn modelId="{D4C3CDD9-B703-48C9-A8AC-8730CDE34DD1}" type="presOf" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{BAECE983-74F0-401B-A0BA-D65F624EBD8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5CB804DC-F388-49A4-A720-3F6015A3F794}" type="presOf" srcId="{0DFF668D-A809-4006-B316-88E9101F189E}" destId="{E9EE785A-AA56-4E55-8EDD-AE3836977539}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{576E73DC-716B-4B8E-95A4-3BCD32947A93}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{502386A2-D292-460A-828F-F90EDAB3A33C}" srcOrd="3" destOrd="0" parTransId="{63E45DEA-A546-49F1-8FF8-6A67982CC2DD}" sibTransId="{716B132D-1F3B-40FF-9933-98BCA1B7E2C9}"/>
-    <dgm:cxn modelId="{5F1093E0-FA7A-4140-A3C4-E592D24FC503}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" srcOrd="1" destOrd="0" parTransId="{DD4C4E2A-C449-4904-95DC-772E9F8FB0DB}" sibTransId="{59C60B74-2E7A-40F5-B146-82642AC77C39}"/>
-    <dgm:cxn modelId="{B297F3E0-9DD3-48C0-BECA-ECCDAB01428D}" type="presOf" srcId="{1C76B6CB-B4F0-4AB3-920F-5DA9564D478C}" destId="{8290A075-2D5C-42B0-9F7D-CF79CA3A6DBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9ED93AE1-D1BC-4DEA-B65B-A75A38327EC5}" type="presOf" srcId="{043C6B7B-0A55-4B92-92D8-999182109033}" destId="{7F2A31E2-397D-4422-9507-B8B1BD254951}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{157359E3-1181-4E7D-8BD6-F31A7B2CF539}" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" srcOrd="0" destOrd="0" parTransId="{C8870DD3-9AB4-4D36-9C56-840DE7B1CA30}" sibTransId="{6C96228F-4BAC-41EB-9B00-20E87C338ED4}"/>
-    <dgm:cxn modelId="{BAE4E5EA-C019-4894-95EE-61CC0C18D9BD}" type="presOf" srcId="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" destId="{312E7874-F7D2-44C3-BA27-16F76D819E00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{40A360EE-9306-4D2B-950E-9DD5623A4BD8}" type="presOf" srcId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" destId="{24671D78-28A3-413C-8170-7E6A50EEF46C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{51D1A8EF-EDAA-43BA-9245-09F1E6C66B75}" type="presOf" srcId="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" destId="{1EA0B823-77B8-405D-ADDD-4E8C84435BD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{38BB83F1-86BB-4208-98EE-D1F7698B936C}" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" srcOrd="2" destOrd="0" parTransId="{A9EDF692-0A2F-4052-915D-F5B59BAF487B}" sibTransId="{4F48BDBA-71C9-4F4C-A86F-D1A668313F1A}"/>
-    <dgm:cxn modelId="{18A8DAF6-138B-4054-9911-61DE03801BE6}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" srcOrd="4" destOrd="0" parTransId="{BB6F4DCE-C2E0-4F31-A352-64BB809F16FD}" sibTransId="{285A2CC7-C06C-4136-8EC2-F9CA05E991C0}"/>
-    <dgm:cxn modelId="{92A80BFB-8735-4EE2-94ED-02C723123F7B}" type="presOf" srcId="{9296DDD8-A147-4C37-8D86-8AD73AA70755}" destId="{64A5E671-AF1B-4F9F-A8EE-E3FA2FF66886}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D79183FC-2AC0-484F-A861-C47F9EE6C2F9}" type="presOf" srcId="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" destId="{671DD9F9-BAD1-4938-8998-E8781880471B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F17C6FE-B917-4DB0-8B7B-EE5AE4866B5D}" type="presOf" srcId="{7419D0D7-338A-4AA2-A99D-7DDBD1B31A13}" destId="{8BDAD81F-8000-4771-BAE6-0D4BFA7F5175}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{72BC0FFF-463B-4E40-8FCC-BDE7DD315E85}" type="presOf" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{A6D2DA4A-37AB-4549-A6D1-040D546DA136}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{61CBBC92-E369-4D03-9C0F-B4149EECFE73}" type="presParOf" srcId="{F9A2A092-EE5D-40A3-93B1-DA6ECBE90FA1}" destId="{0E7C9E82-50E4-4AA7-8A45-51040937F6F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{68185831-B0C6-43A7-8D5F-119EEA76D640}" type="presParOf" srcId="{0E7C9E82-50E4-4AA7-8A45-51040937F6F0}" destId="{35F17638-AEA0-4712-BD3C-350932485C8A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{79DA619F-A524-480E-B236-3FE496D1EDCC}" type="presParOf" srcId="{35F17638-AEA0-4712-BD3C-350932485C8A}" destId="{11D204D4-85E1-4064-8032-B2ACE6A99C20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BAFA1BBE-60F0-45EC-BAA6-83578769B833}" type="presParOf" srcId="{35F17638-AEA0-4712-BD3C-350932485C8A}" destId="{BAECE983-74F0-401B-A0BA-D65F624EBD8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9C34A6F5-1FEF-4FE3-9D03-B4CFB505673F}" type="presParOf" srcId="{0E7C9E82-50E4-4AA7-8A45-51040937F6F0}" destId="{47E83014-2D75-42B7-BC8C-409A6001240D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1577EE6B-C4BB-4166-9BAA-DC231B478B55}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{74720BDC-17CE-4522-8393-2E0C61317C57}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7FDD13AD-DA2C-4D11-BE59-D2A318850DE9}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DC0A9796-0534-40BA-8720-6D4B7DB559EB}" type="presParOf" srcId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" destId="{E03BD054-7F01-4443-B2A3-36F271E3E90F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{16E0C282-A4BF-4A93-9EDE-44ECF5AD5769}" type="presParOf" srcId="{E03BD054-7F01-4443-B2A3-36F271E3E90F}" destId="{C6CF2AFF-1826-4D66-8828-453EA18CEF24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3C292ACA-AF94-4EB1-8C79-ADF16D2355D6}" type="presParOf" srcId="{E03BD054-7F01-4443-B2A3-36F271E3E90F}" destId="{30889E66-01C5-4C33-992C-2E402AB3D57D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{62CC6247-2C45-4330-B66F-81EE10EA17F4}" type="presParOf" srcId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" destId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6418213D-2652-41C4-B291-D189C7536474}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{64A5E671-AF1B-4F9F-A8EE-E3FA2FF66886}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0859A686-BC98-4B1D-B50A-CC6EA0466006}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{348B0C26-7F7D-4FD0-BA38-B1DA989DFDFD}" type="presParOf" srcId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" destId="{25013327-C5E4-445B-8EAF-AC6BBE1A3924}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2A943C59-5DC3-4962-B806-1E493893676B}" type="presParOf" srcId="{25013327-C5E4-445B-8EAF-AC6BBE1A3924}" destId="{3F9D0AA9-4977-4BA7-8F45-A803064E709C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{857D04B5-C840-41E3-ACD4-8FE0F385035C}" type="presParOf" srcId="{25013327-C5E4-445B-8EAF-AC6BBE1A3924}" destId="{A329A831-2AC3-4BC8-80F9-C5258C07FE6D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1AD0FB87-C9CF-4AC1-B849-CB7581AE1B66}" type="presParOf" srcId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" destId="{45CF87F3-4A0C-4FC5-BCE9-4659AF808E38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7205F5D5-729B-4D24-99BF-2924B7AE39C1}" type="presParOf" srcId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" destId="{DCE05967-39DC-4F49-9C78-AAE793BE47A5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B74793E7-C9A5-48E4-B288-7C01A3BDD61F}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{69ED22EF-22E3-471A-8564-55F307A34590}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1147E89D-BF9B-4EFD-BB60-B135A107775F}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AD16BF4F-190B-4AA8-861D-3DEB30084872}" type="presParOf" srcId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" destId="{B7F01E30-253F-4586-A75D-F43C3B34DF69}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D6FFB51B-B632-4856-ACAB-7E3D6AB22FCA}" type="presParOf" srcId="{B7F01E30-253F-4586-A75D-F43C3B34DF69}" destId="{903372A5-C12B-4630-A721-25CCF0DB2C46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{09E469BD-F0E5-4A5C-AC1D-CB58E1BD0971}" type="presParOf" srcId="{B7F01E30-253F-4586-A75D-F43C3B34DF69}" destId="{671DD9F9-BAD1-4938-8998-E8781880471B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4DADF713-0C68-4EF7-BFC1-8509EFF1B33B}" type="presParOf" srcId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" destId="{4E657AC1-CF67-4E35-B335-DEDDCEBB8A89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5FD3578B-34BD-42AB-BD91-D2512F7A948E}" type="presParOf" srcId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" destId="{C395C976-720C-4CC2-A594-A63D74157D2B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{31A82B9E-0DB2-4C20-ADD7-26BA7F71FF1B}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{1C15A1DD-0285-4887-B165-FF74E04D0949}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{348FC98D-FACD-44C8-AE8B-83291D08F8E3}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{49F8D828-6B16-45F0-8874-BC251A0F5239}" type="presParOf" srcId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" destId="{5A03192A-E9D4-48DC-BD00-88CFD99F4D2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{206FBCF0-50BE-41DE-9F4B-499223186AB1}" type="presParOf" srcId="{5A03192A-E9D4-48DC-BD00-88CFD99F4D2F}" destId="{BAB5EA54-AF8D-4102-8F0A-665560F8B412}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5E4D6B77-A0A7-440F-97A6-CB7C89418543}" type="presParOf" srcId="{5A03192A-E9D4-48DC-BD00-88CFD99F4D2F}" destId="{10B5C5C3-5223-4C8B-89C4-B013299DAE4D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D69D7CEE-D03C-4728-BA70-54BBBC23B0FA}" type="presParOf" srcId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" destId="{640F531F-FF27-4536-A3D6-7725E077BC56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82509BA3-6684-4AAD-9356-1EE3A59ED8B2}" type="presParOf" srcId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" destId="{4F8912AC-0CA9-4397-9E80-AC2C072DC0AA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5B1506BB-3273-4C05-8FFD-6D765B660451}" type="presParOf" srcId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" destId="{98692865-6F0B-427C-A27A-3B8E071508F1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A559EA24-BBCE-4019-A6CD-33D3ABAE2446}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{FA4F7265-DC00-4775-B267-75D9CFD467D4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CFA27168-558F-4B5B-87B0-0E1E04618A46}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A5D48A20-CED0-4276-B285-2509BC693F4A}" type="presParOf" srcId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" destId="{74AA30D6-2AC3-4114-B816-4F346D3C795E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BD1508C7-438C-49BC-B67A-BFE60877405E}" type="presParOf" srcId="{74AA30D6-2AC3-4114-B816-4F346D3C795E}" destId="{B5B01E53-A3C2-4361-9EF5-14D4A5CD494E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BDBC1AAD-F76B-402E-A46B-05A73C601735}" type="presParOf" srcId="{74AA30D6-2AC3-4114-B816-4F346D3C795E}" destId="{24671D78-28A3-413C-8170-7E6A50EEF46C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{16523B10-7973-48F7-917B-93F6AF9091F1}" type="presParOf" srcId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" destId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DCB0C239-CC4C-4DCF-9B08-F5FA83582FF9}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{AD6E2D00-01A4-4215-84E5-B13631ACF8D1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{55345661-14E9-4600-8627-D5D8FC967A77}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E6099547-10F0-4AC0-B908-ABCE33664E37}" type="presParOf" srcId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" destId="{A4FF1C61-BD64-43FD-8DA7-A735A88E0694}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4930E059-75C2-4B40-80B9-D39145639227}" type="presParOf" srcId="{A4FF1C61-BD64-43FD-8DA7-A735A88E0694}" destId="{5BF88FF6-9DFD-4AC8-8A16-2C35CF475A62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BD3D1E9F-F9EE-41B2-8C41-7B65224B9799}" type="presParOf" srcId="{A4FF1C61-BD64-43FD-8DA7-A735A88E0694}" destId="{312E7874-F7D2-44C3-BA27-16F76D819E00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A25BEED9-024F-4FAB-8D65-E5DDECFEF8BD}" type="presParOf" srcId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" destId="{7388FC8E-F444-436D-9450-718B95AD8A91}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{33F126DD-8A4E-4D94-9DC8-4DD4040A21C9}" type="presParOf" srcId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" destId="{1FC81177-B2C7-44C4-B0D9-739BE6F442EB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E5EC6705-5468-436F-A61F-C994D6B645EA}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{46B51BE7-FE7D-4458-8074-4109AFCDF84D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{05D8EC1F-7824-4B44-B28E-15659E02844B}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{645B4C0B-F37C-4E5E-8DD7-E04A1BC36B72}" type="presParOf" srcId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" destId="{F236B6F7-889C-422C-98A8-CB6287103759}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{171195C6-5B38-403F-8271-10390FF965A8}" type="presParOf" srcId="{F236B6F7-889C-422C-98A8-CB6287103759}" destId="{79DF38A6-3C7F-490A-80F7-D37D9B816EB0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{998FBFED-B1B2-453B-9388-F00444A52CE9}" type="presParOf" srcId="{F236B6F7-889C-422C-98A8-CB6287103759}" destId="{EF5B9E51-905E-4C26-8BF5-221DB70B6AE1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{43956B2B-620A-47E6-B636-C0D944DAF1E9}" type="presParOf" srcId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" destId="{02ED24DD-BCB1-4AC6-AF1E-4CFA2A89F746}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8FC34416-1150-4E6C-B895-61F7515AFB93}" type="presParOf" srcId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" destId="{D8F97A13-3659-484D-B692-17B5FB0F4D29}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{68C9DA0D-CF4C-4FE4-97FB-981CAC96D0E2}" type="presParOf" srcId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" destId="{113D2A74-AE3C-44A5-A3E4-37D0E338A9D4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{780D3DC2-1AA4-4064-BD29-DC5200DBBE60}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{120A195E-63F0-48D8-AB4C-8B344F1D0D39}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D14FC2C6-0355-4A4A-9B66-913F0840B970}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{51EE01C0-A4C9-4952-9786-482E55F87268}" type="presParOf" srcId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" destId="{E0F8186E-9CC4-4A6E-BF0F-337E64254198}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{73233227-8C6F-4461-B351-45D1EAF66D93}" type="presParOf" srcId="{E0F8186E-9CC4-4A6E-BF0F-337E64254198}" destId="{91376554-53E3-4E4C-8159-1E384A1451E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{42A66DC7-7FB4-414A-A780-79E0DAA969E8}" type="presParOf" srcId="{E0F8186E-9CC4-4A6E-BF0F-337E64254198}" destId="{6E35C6A9-80B9-4F75-A7A1-11036773F3CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C30188A9-F2A6-44BB-95F2-E8B0A49EA339}" type="presParOf" srcId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" destId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A08EE762-38F9-4E9B-896A-05D421D5E6A5}" type="presParOf" srcId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" destId="{9CFFFB56-617E-4130-8F9C-E688AAACC9AB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6701FC41-FF3C-4730-B3E0-2BEED255893B}" type="presParOf" srcId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" destId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8D87C540-D0D7-4A5E-9B6E-323473A4D5BC}" type="presParOf" srcId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" destId="{596FB3DA-AB82-482E-B312-73312EC77D79}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D912F572-474A-49F6-BD44-3F1F87F9725E}" type="presParOf" srcId="{596FB3DA-AB82-482E-B312-73312EC77D79}" destId="{6615EE38-7E53-40E4-8137-3772D64F6395}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{662E015F-4DC2-493A-9D37-F4943A5F270C}" type="presParOf" srcId="{596FB3DA-AB82-482E-B312-73312EC77D79}" destId="{D03D9B7B-672C-4F9D-83D3-E769812ED4F9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{591636A8-1EBC-40B6-98E1-47BB03D313E8}" type="presParOf" srcId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" destId="{9E70B117-F7A5-4E06-9CAE-B381B4633804}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F3181AB9-9A96-421A-BE37-CDF426DD89A7}" type="presParOf" srcId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" destId="{48F7A32D-E9B2-4C5A-B0B8-525EE9417F1B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B9CB8A5D-459B-4931-B13A-CBA17B7A5027}" type="presParOf" srcId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" destId="{67E74EB0-17DC-4F82-8C9E-0D39E72F9E92}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0BDEA193-93CA-4A80-89B1-6901CB815E17}" type="presParOf" srcId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" destId="{1B8ED305-1348-4538-888F-2682109B56E1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A8BEBF6E-0C56-487D-B1E0-C3D7A507F00E}" type="presParOf" srcId="{1B8ED305-1348-4538-888F-2682109B56E1}" destId="{A4804E0C-91DB-42D0-85E1-4A5F0AF8D58E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F176286C-ADCC-449A-A086-9D72245E84FC}" type="presParOf" srcId="{A4804E0C-91DB-42D0-85E1-4A5F0AF8D58E}" destId="{1F0DD16A-0C11-4F77-BD37-9A87B880573B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3300299A-1A19-4362-805B-0327C526CC7A}" type="presParOf" srcId="{A4804E0C-91DB-42D0-85E1-4A5F0AF8D58E}" destId="{842359A9-6879-49EB-A9C2-64FFFE67A990}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BAAE48FE-C556-43C3-86A6-CEE95F1ECA12}" type="presParOf" srcId="{1B8ED305-1348-4538-888F-2682109B56E1}" destId="{08970006-FA8A-4B0D-A061-197F9C058BA3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0EDD6E25-7869-41D5-9817-5A3604F45510}" type="presParOf" srcId="{1B8ED305-1348-4538-888F-2682109B56E1}" destId="{1B77ECAD-5A39-4A0E-9CF5-4C2B4EF7F637}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A666E3F8-5B30-4BCF-9824-36BF959ECD2C}" type="presParOf" srcId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" destId="{66E74247-82A5-4BE5-811F-A5955C17E725}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{155261BE-0FD2-48E3-88F0-8CCEB5AEFDC3}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{73D97EFB-F263-419D-8CE2-E0E6D299657B}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1CD781A8-DD2A-4B5D-9783-9B594277FAF2}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F82D5B25-368D-4199-8A6E-D36F2DB976C4}" type="presParOf" srcId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" destId="{E470973A-26E3-4993-B32B-888B75EE3C40}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1B2EF5B1-979B-4815-A4F8-C26CF4693492}" type="presParOf" srcId="{E470973A-26E3-4993-B32B-888B75EE3C40}" destId="{EA3031DA-452E-48AB-8884-90DD9B9FE4B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7E067ABB-5894-4B58-8C7B-4EF635130A4D}" type="presParOf" srcId="{E470973A-26E3-4993-B32B-888B75EE3C40}" destId="{D21580A5-D397-45B3-80E9-28A8C4974FE1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{61A8A00A-7EE8-4E7C-A260-230F722819C5}" type="presParOf" srcId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" destId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9BBAA9D7-53FC-4FAA-8F18-DCA157798A1A}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{3D7919E7-5D17-42DF-9E4C-BF8179D7258F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BCCA957D-5B0A-46A7-A4AF-BAEFCFE60DCE}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{361D6233-757F-479B-BDB4-0BFC918005D8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{552FE21F-8020-4F2F-870A-645ACA61FFCA}" type="presParOf" srcId="{361D6233-757F-479B-BDB4-0BFC918005D8}" destId="{8E9D4D91-9885-441C-9B30-7DA0A7844A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2F079FBF-2D3D-42B8-92C9-F2974D2AA2E2}" type="presParOf" srcId="{8E9D4D91-9885-441C-9B30-7DA0A7844A56}" destId="{1EA0B823-77B8-405D-ADDD-4E8C84435BD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{11F227A6-0B3A-4FE3-A5A6-8BD3266F539D}" type="presParOf" srcId="{8E9D4D91-9885-441C-9B30-7DA0A7844A56}" destId="{445AFF96-378B-4189-9DBA-225F308C482E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AB451109-59BA-4774-93C4-DA638DF46B9F}" type="presParOf" srcId="{361D6233-757F-479B-BDB4-0BFC918005D8}" destId="{A33BB459-580A-47A0-BA57-A88B97FAB012}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0811320D-06AA-432F-8A74-E347B3930235}" type="presParOf" srcId="{361D6233-757F-479B-BDB4-0BFC918005D8}" destId="{36C9881D-39D4-444B-B83F-61C2687E362C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0265882D-3A31-4E88-85A0-990D2DF2E186}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{E973EB2C-DFF9-4FF3-8A65-B0E7B00CA824}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1A191D17-E8F2-47F0-BA33-E26BA4377FC8}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AE68670C-A0A8-4B69-8CC1-885AC7BFC51F}" type="presParOf" srcId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" destId="{D23974EF-7343-42C6-B022-0873DB31464D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4C32980E-C7FE-4AAE-BDC2-F6B3702A25A0}" type="presParOf" srcId="{D23974EF-7343-42C6-B022-0873DB31464D}" destId="{9E67B9C0-C5BD-4B78-B5DE-B36BEC695084}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{643971C4-A575-47ED-9C85-00AD3DAB3EA9}" type="presParOf" srcId="{D23974EF-7343-42C6-B022-0873DB31464D}" destId="{12981B9F-B7DE-454C-AEC8-DFE63567AAE7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F19E4A9A-1717-4283-81E9-0BDCAA520DF2}" type="presParOf" srcId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" destId="{43854EC4-58BB-4D0F-95B4-DE28BED754CA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3C448925-3B4B-4406-A260-269A97D7C724}" type="presParOf" srcId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" destId="{03EFFF9F-53E6-4230-9352-C36A6925C376}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ADC485D1-6CFE-49E1-B011-1F38DC548BC1}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{24F1A71B-7A94-43F2-9560-4A3ED8512987}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6164EEEC-C195-4F72-9939-F93C3C37B73E}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{17022C68-ABE2-417C-844F-55044C276361}" type="presParOf" srcId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" destId="{8502D447-C01A-446C-B4FA-8FA05ABD122E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6E0C3B60-A6F6-4421-B823-BE73B07AAEB1}" type="presParOf" srcId="{8502D447-C01A-446C-B4FA-8FA05ABD122E}" destId="{3E6AE8F6-5471-4856-95DC-F5889B864C8D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B1A31A96-AE41-4A82-96A5-FDE4EDEEBC8F}" type="presParOf" srcId="{8502D447-C01A-446C-B4FA-8FA05ABD122E}" destId="{01D2A1C9-25C9-4939-BFDF-D03CD0EFBD56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8164A73A-3EEB-4FC1-BDA1-328A550C1A8A}" type="presParOf" srcId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" destId="{9D63A18F-C603-4CB4-987E-985D937E7A41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{91B25D54-6E87-4638-BE5B-0A0B23D4D7B2}" type="presParOf" srcId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" destId="{D370F1D9-3518-49A7-8DFD-CBE0057A4E0D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A66F98C6-3EA4-4BBD-BBDF-DF3B027FCED1}" type="presParOf" srcId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" destId="{23BCB62B-2101-483D-AB6D-FDCC5D8F0ACC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{928FAED5-13F0-4802-99A4-8B98994A90F6}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{B31B1233-1A0C-4DBA-AA9F-47EED452E7DD}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D26E2373-F45F-48E9-80A8-66A99C2B9F4A}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{138911D0-D512-4830-929F-F9267A9C5CAE}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F46190D-E943-42E1-B08D-84F440A2B65F}" type="presParOf" srcId="{138911D0-D512-4830-929F-F9267A9C5CAE}" destId="{2C09789D-FAF6-4FE9-BE6E-2B5984E1BE64}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EDC4DA79-BE14-4982-84C2-99DDE6EC1431}" type="presParOf" srcId="{2C09789D-FAF6-4FE9-BE6E-2B5984E1BE64}" destId="{A6D2DA4A-37AB-4549-A6D1-040D546DA136}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FACFE345-52E5-43B0-B4E4-C874045BE7DB}" type="presParOf" srcId="{2C09789D-FAF6-4FE9-BE6E-2B5984E1BE64}" destId="{ECB704A2-FE9D-4E3F-B1A7-9D6DE255B3FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7B4229BF-EABE-4CB3-9C6E-A6F5EF0EF77D}" type="presParOf" srcId="{138911D0-D512-4830-929F-F9267A9C5CAE}" destId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B2E45BFD-7B09-4B7F-BAD7-BF30C2D9B0D3}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{8BDAD81F-8000-4771-BAE6-0D4BFA7F5175}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DBB1631F-454D-4B54-B1D4-2A9541991764}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D950277F-5B48-4F4C-9F97-0C0852BA04D5}" type="presParOf" srcId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" destId="{87B42DC9-AF16-4840-95D1-7580C0152F88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B18E5885-E4A6-48DC-A2A0-58FE140E0E01}" type="presParOf" srcId="{87B42DC9-AF16-4840-95D1-7580C0152F88}" destId="{77952155-E0FD-4EE2-96B1-D088254C9B59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FEECC931-E07D-4D8A-B3A9-398115969686}" type="presParOf" srcId="{87B42DC9-AF16-4840-95D1-7580C0152F88}" destId="{7F2A31E2-397D-4422-9507-B8B1BD254951}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2226C594-5AF7-4497-BCCF-1ED8DA586CF3}" type="presParOf" srcId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" destId="{63DB5D1A-915F-4707-A090-4DF863E50708}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B93F5003-DC66-49E9-A574-A43A2A535EEB}" type="presParOf" srcId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" destId="{FE83F513-0E75-4548-B54A-FC9500C403B6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C0BC9906-DC42-4544-9982-50B1D403C0D2}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{D4B91063-D47B-4C6E-9712-C5344CD0AC7A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{16106A52-8854-4D3B-A03F-102F926296E2}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0E0D7BEB-940D-4091-BE9C-F3522BB1ABF4}" type="presParOf" srcId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" destId="{3488136F-2A86-4DE8-9788-00AB02F29B43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{69B8D6E8-EADA-4458-A4EC-B71AE2F1F775}" type="presParOf" srcId="{3488136F-2A86-4DE8-9788-00AB02F29B43}" destId="{906D0AE4-18EC-40AD-BFC3-C1582802AD6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CB93F6DE-7EFD-40F5-87AE-7310EB89D719}" type="presParOf" srcId="{3488136F-2A86-4DE8-9788-00AB02F29B43}" destId="{4C4DB1A9-7280-4D75-A406-0142E97D1DD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{64845C39-5926-471F-A838-6E2128E84FB5}" type="presParOf" srcId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" destId="{56FA1189-1A2D-4B98-AFB3-56C54EEBDC7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C2198C3E-901A-40BA-B73A-628CC03B1EDF}" type="presParOf" srcId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" destId="{2AE3B63F-A10F-45EE-9FFF-D8C5E4A401CF}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E1681950-0169-4AC7-8F49-6DA9B13ABE01}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{F479933D-53B5-4E64-90CC-2D4C0B79ED01}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1333A3FF-B20F-4437-BF0C-EC6F9EF5FBA7}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B8519EA5-0F22-4233-8979-ACB7B2AB5430}" type="presParOf" srcId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" destId="{CACCD6F3-0214-46C9-858F-510E913D8CCF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B5014952-3FC7-405B-81F7-8CFCF9A0ABCD}" type="presParOf" srcId="{CACCD6F3-0214-46C9-858F-510E913D8CCF}" destId="{54F6C9DE-A44C-4C0B-9FDB-36A5506EE2AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{27A69829-3A8B-4040-93A7-6F0144F80666}" type="presParOf" srcId="{CACCD6F3-0214-46C9-858F-510E913D8CCF}" destId="{C0E40011-B632-4811-89D2-059E24C62CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B63FC545-CC82-4E2E-9CC3-9A76099051A3}" type="presParOf" srcId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" destId="{23D495C1-75FA-446A-87D0-BE829333E8B3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CE4FB53B-FD31-4780-AB90-D19B5C12E92B}" type="presParOf" srcId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" destId="{3EB96572-B8F5-4F9F-9771-C6A77F87DF5C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8A6C6ECA-55C7-481A-9EE0-D32E8364D66D}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{E9EE785A-AA56-4E55-8EDD-AE3836977539}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E139C93C-9322-4B02-BE7D-0AC95ECCC36B}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F668108D-ED6F-4143-8A98-99ADB610657D}" type="presParOf" srcId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" destId="{86ECAFC2-7929-4F79-AC14-08791BEB9DA9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{505FA516-E67D-4774-8067-FEB6D71C9A9A}" type="presParOf" srcId="{86ECAFC2-7929-4F79-AC14-08791BEB9DA9}" destId="{131E6F1C-C65D-4491-9D89-3AC0C3BA2E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{506D8418-E985-48F0-853E-10B7989E1BDD}" type="presParOf" srcId="{86ECAFC2-7929-4F79-AC14-08791BEB9DA9}" destId="{8290A075-2D5C-42B0-9F7D-CF79CA3A6DBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7DA4778D-7B13-44D3-B4EE-BD51EC419553}" type="presParOf" srcId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" destId="{19E21C11-BC6A-4242-BD47-DC8FF9CF46B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2F1690B8-F636-458D-979A-35B32D217609}" type="presParOf" srcId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" destId="{29DC647F-D61C-44CA-A5A7-F5BD262EB5DD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{77D7E498-52A1-4F44-9C29-13C4ED5B8327}" type="presParOf" srcId="{138911D0-D512-4830-929F-F9267A9C5CAE}" destId="{9513E695-EAFF-41CA-9776-EBDD76750655}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DBD4BF80-0E17-4EFA-8DF9-A1369CD55AE1}" type="presParOf" srcId="{0E7C9E82-50E4-4AA7-8A45-51040937F6F0}" destId="{2C39D43D-4037-4D24-A071-45D31B3618EE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7B9315D6-6B08-4987-88B9-CDBC9C3AE640}" type="presOf" srcId="{588AC4C3-5AC0-4FA3-852F-C6E415E2E87D}" destId="{E973EB2C-DFF9-4FF3-8A65-B0E7B00CA824}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{576E73DC-716B-4B8E-95A4-3BCD32947A93}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{502386A2-D292-460A-828F-F90EDAB3A33C}" srcOrd="2" destOrd="0" parTransId="{63E45DEA-A546-49F1-8FF8-6A67982CC2DD}" sibTransId="{716B132D-1F3B-40FF-9933-98BCA1B7E2C9}"/>
+    <dgm:cxn modelId="{5F1093E0-FA7A-4140-A3C4-E592D24FC503}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{2AD8536E-0F24-4542-AA58-A540C7F8215E}" srcOrd="0" destOrd="0" parTransId="{DD4C4E2A-C449-4904-95DC-772E9F8FB0DB}" sibTransId="{59C60B74-2E7A-40F5-B146-82642AC77C39}"/>
+    <dgm:cxn modelId="{D22B85E1-DAAE-46F2-AA88-C0BA19C1C2BC}" type="presOf" srcId="{2FDC333D-C25E-44D7-9792-2F138F6C8C47}" destId="{671DD9F9-BAD1-4938-8998-E8781880471B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{79236CE3-75D0-4D00-9D08-28230DE695D0}" type="presOf" srcId="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" destId="{5BF88FF6-9DFD-4AC8-8A16-2C35CF475A62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{157359E3-1181-4E7D-8BD6-F31A7B2CF539}" srcId="{502386A2-D292-460A-828F-F90EDAB3A33C}" destId="{D9F55359-88C3-4C2D-9A07-7D85940EFD15}" srcOrd="1" destOrd="0" parTransId="{C8870DD3-9AB4-4D36-9C56-840DE7B1CA30}" sibTransId="{6C96228F-4BAC-41EB-9B00-20E87C338ED4}"/>
+    <dgm:cxn modelId="{C551CAE7-6BA2-4960-BE67-270B841962FD}" type="presOf" srcId="{9A788F97-7178-4C13-A376-56C7BA7DBC74}" destId="{3E6AE8F6-5471-4856-95DC-F5889B864C8D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8A0E8CE8-32D1-401F-BBD7-838390230382}" type="presOf" srcId="{A887EDA4-B95D-4DFD-AA50-BF46BA6A75D9}" destId="{C6CF2AFF-1826-4D66-8828-453EA18CEF24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CF74CEE9-BC07-4EB6-83C3-52C4AD6461BC}" type="presOf" srcId="{578C3072-7D68-4099-BD4F-BFBA935D8ABB}" destId="{24F1A71B-7A94-43F2-9560-4A3ED8512987}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6FB438EE-5F25-45A8-AB61-FF78AC8955B2}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" srcOrd="4" destOrd="0" parTransId="{4C145C39-35ED-49E0-BB2A-C16FDFADBD0D}" sibTransId="{621A7640-EAE4-4C3F-847B-3924C9437D0B}"/>
+    <dgm:cxn modelId="{927483EE-0076-4B85-9F13-BDEAB031BE3E}" type="presOf" srcId="{15718176-2758-4D06-AEED-1D4C00A4BFF2}" destId="{4C4DB1A9-7280-4D75-A406-0142E97D1DD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{133370EF-9BC0-4F88-A528-5CC58CDD90E2}" type="presOf" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{BAECE983-74F0-401B-A0BA-D65F624EBD8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{38BB83F1-86BB-4208-98EE-D1F7698B936C}" srcId="{B0E6F0F1-F650-4C4D-817E-B2399D0B30B4}" destId="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" srcOrd="1" destOrd="0" parTransId="{A9EDF692-0A2F-4052-915D-F5B59BAF487B}" sibTransId="{4F48BDBA-71C9-4F4C-A86F-D1A668313F1A}"/>
+    <dgm:cxn modelId="{DB2E1EF4-DE46-4D28-8AC6-C261A2E64A41}" type="presOf" srcId="{2A5836BE-6207-426B-8891-D8C3FF15B91C}" destId="{C0E40011-B632-4811-89D2-059E24C62CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{447AD8F5-DDA8-4F26-8337-76B160F7E721}" type="presOf" srcId="{052746E2-35AE-4596-B49E-915582515DEF}" destId="{9E67B9C0-C5BD-4B78-B5DE-B36BEC695084}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E83F56F6-EC27-44FC-91E9-3F13B023FD0E}" type="presOf" srcId="{7E207781-6F07-4338-8CE4-BCABD45C9D04}" destId="{312E7874-F7D2-44C3-BA27-16F76D819E00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{18A8DAF6-138B-4054-9911-61DE03801BE6}" srcId="{A126D7DE-C17E-4889-BF22-268CAB2C1268}" destId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" srcOrd="5" destOrd="0" parTransId="{BB6F4DCE-C2E0-4F31-A352-64BB809F16FD}" sibTransId="{285A2CC7-C06C-4136-8EC2-F9CA05E991C0}"/>
+    <dgm:cxn modelId="{BE75D1F8-CDCF-4880-823E-953D44E54A90}" type="presOf" srcId="{D2E3DB82-8BA9-44F7-A0F3-979113EC121D}" destId="{EF5B9E51-905E-4C26-8BF5-221DB70B6AE1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{463AEBF8-8ACA-4264-97D6-155300F5BC6E}" type="presOf" srcId="{4EC7228E-B4E7-4D7D-848B-6C0175CF6FA5}" destId="{ECB704A2-FE9D-4E3F-B1A7-9D6DE255B3FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E4ED09F9-0291-42C0-9D9C-BEE85D35E4C4}" type="presOf" srcId="{D465BCE5-87F5-4EFE-8419-49FC281C1D37}" destId="{6E35C6A9-80B9-4F75-A7A1-11036773F3CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0DBCD5FD-F616-4DAA-B70C-52D493F938BC}" type="presOf" srcId="{474F7E1E-87A7-48E3-BE4F-6F9503DF52E2}" destId="{9CFFFB56-617E-4130-8F9C-E688AAACC9AB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{82AFF4FF-A49E-4721-ABCB-F2E5C0156704}" type="presOf" srcId="{E579B731-3249-46A2-8AEA-C0C419514ACD}" destId="{10B5C5C3-5223-4C8B-89C4-B013299DAE4D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{662BA521-982B-42CC-B1BA-BAE0F74C8EF0}" type="presParOf" srcId="{F9A2A092-EE5D-40A3-93B1-DA6ECBE90FA1}" destId="{0E7C9E82-50E4-4AA7-8A45-51040937F6F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B093E8B0-3109-43E3-AE31-54513A56AF02}" type="presParOf" srcId="{0E7C9E82-50E4-4AA7-8A45-51040937F6F0}" destId="{35F17638-AEA0-4712-BD3C-350932485C8A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1E1DC6A8-4D7A-4006-A3F9-CD7A1D53517C}" type="presParOf" srcId="{35F17638-AEA0-4712-BD3C-350932485C8A}" destId="{11D204D4-85E1-4064-8032-B2ACE6A99C20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{922D47C7-547B-49AD-85ED-993155A6E527}" type="presParOf" srcId="{35F17638-AEA0-4712-BD3C-350932485C8A}" destId="{BAECE983-74F0-401B-A0BA-D65F624EBD8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{16D4C75A-DDB9-4BD7-82A5-20F644A31690}" type="presParOf" srcId="{0E7C9E82-50E4-4AA7-8A45-51040937F6F0}" destId="{47E83014-2D75-42B7-BC8C-409A6001240D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6B08A004-223A-4C8B-8904-096AA71F9209}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{FA4F7265-DC00-4775-B267-75D9CFD467D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE6501B2-4F1E-4756-A583-EB63626B7B18}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{59834F62-9E77-4039-ADDD-5BE21F8DF963}" type="presParOf" srcId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" destId="{74AA30D6-2AC3-4114-B816-4F346D3C795E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{452B48A8-59B2-4176-9175-2DA6721EC7B3}" type="presParOf" srcId="{74AA30D6-2AC3-4114-B816-4F346D3C795E}" destId="{B5B01E53-A3C2-4361-9EF5-14D4A5CD494E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE7FEB81-266E-4FC6-AB57-3E1570C07A96}" type="presParOf" srcId="{74AA30D6-2AC3-4114-B816-4F346D3C795E}" destId="{24671D78-28A3-413C-8170-7E6A50EEF46C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{16AB9BC1-3015-4B43-B421-E5562F31ED73}" type="presParOf" srcId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" destId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C29E2791-0840-4ED2-87ED-E37B390D6308}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{09241FA8-A4CC-435C-A06D-20EC18D60E51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB1F8215-AB31-4DA5-9999-6C26EFD4A96D}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{C80D69A2-4988-4321-8AFC-687012C98310}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A68199E9-9EEB-4E7C-BF51-9FF21A12B93A}" type="presParOf" srcId="{C80D69A2-4988-4321-8AFC-687012C98310}" destId="{FC797222-298C-44A1-9E14-47E6EB32CED1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{11833EBE-6721-4EB3-80E2-4ECA0E99EBA6}" type="presParOf" srcId="{FC797222-298C-44A1-9E14-47E6EB32CED1}" destId="{8FC8280A-5F2C-46BB-9A10-6EE1F208ECC7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DD355AFA-556E-4CA0-9FD2-4E84522D49B0}" type="presParOf" srcId="{FC797222-298C-44A1-9E14-47E6EB32CED1}" destId="{2196E1B7-315D-459B-AE5B-00BCC310A0FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2B78C6DE-F771-4207-8077-91FCEF146614}" type="presParOf" srcId="{C80D69A2-4988-4321-8AFC-687012C98310}" destId="{71B19355-C277-4A51-8306-8F9A024EEC13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4C128DF4-3A15-49D2-843E-9D7DA7A98CFD}" type="presParOf" srcId="{C80D69A2-4988-4321-8AFC-687012C98310}" destId="{81054589-C70E-443F-9F04-CCA63391790D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{06BC18DB-7382-4FE4-BB5A-E02C2B00A058}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{AD6E2D00-01A4-4215-84E5-B13631ACF8D1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB4F4503-113B-44CF-8921-99AF8C8EDCC4}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{82625786-B43A-4BA0-A127-7C0D9E7C0B56}" type="presParOf" srcId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" destId="{A4FF1C61-BD64-43FD-8DA7-A735A88E0694}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{50949AF5-76DF-43DC-8A48-8B5C75FEA390}" type="presParOf" srcId="{A4FF1C61-BD64-43FD-8DA7-A735A88E0694}" destId="{5BF88FF6-9DFD-4AC8-8A16-2C35CF475A62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EA53A29F-DFBD-403B-8D44-541BD77C445D}" type="presParOf" srcId="{A4FF1C61-BD64-43FD-8DA7-A735A88E0694}" destId="{312E7874-F7D2-44C3-BA27-16F76D819E00}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E2ECB0A-A4BE-439E-BB0F-11B9DD4B3C7B}" type="presParOf" srcId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" destId="{7388FC8E-F444-436D-9450-718B95AD8A91}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{41C3D319-8C08-4636-A611-33F8B80BE98C}" type="presParOf" srcId="{F3CB1F6B-B537-4FD9-B780-3794B975DD0A}" destId="{1FC81177-B2C7-44C4-B0D9-739BE6F442EB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5DCF908F-2D61-444B-B797-89F81A93F05C}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{46B51BE7-FE7D-4458-8074-4109AFCDF84D}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B946A610-4854-45B7-A9FB-282F6AFA55DB}" type="presParOf" srcId="{C80B7534-3282-43D3-853D-B13ED9B185B6}" destId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BE86B152-96CA-43C6-9A18-B694314619C5}" type="presParOf" srcId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" destId="{F236B6F7-889C-422C-98A8-CB6287103759}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A2CBF9D7-E515-4052-B5DC-0A691399C5C8}" type="presParOf" srcId="{F236B6F7-889C-422C-98A8-CB6287103759}" destId="{79DF38A6-3C7F-490A-80F7-D37D9B816EB0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A1FF6C19-C4EF-42B8-817A-81B7A985F4FA}" type="presParOf" srcId="{F236B6F7-889C-422C-98A8-CB6287103759}" destId="{EF5B9E51-905E-4C26-8BF5-221DB70B6AE1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ABA03CA2-E9EF-466A-813C-55B2C7601F6C}" type="presParOf" srcId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" destId="{02ED24DD-BCB1-4AC6-AF1E-4CFA2A89F746}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6902D2EF-EC12-4437-8616-7D14DBDA403D}" type="presParOf" srcId="{23E5BB09-9DDD-4A80-B5C7-5E6A2FBC03F3}" destId="{D8F97A13-3659-484D-B692-17B5FB0F4D29}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8934EB44-CEB0-4514-B1AE-3EBC8B4C829F}" type="presParOf" srcId="{F340D950-5DE1-4028-AC72-B2A72BAE952E}" destId="{113D2A74-AE3C-44A5-A3E4-37D0E338A9D4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BEF4F4E5-263E-442D-BEA9-B25B6A045882}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{120A195E-63F0-48D8-AB4C-8B344F1D0D39}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6D68C880-3B13-4188-BACA-4A39F8A6E8F2}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF1CB05E-2D4C-4D81-A01A-CCD4E4B18093}" type="presParOf" srcId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" destId="{E0F8186E-9CC4-4A6E-BF0F-337E64254198}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D6E9FBCD-1417-4A71-A750-9432A2E0E1C0}" type="presParOf" srcId="{E0F8186E-9CC4-4A6E-BF0F-337E64254198}" destId="{91376554-53E3-4E4C-8159-1E384A1451E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3049B38C-F233-49B6-9269-752104633F8C}" type="presParOf" srcId="{E0F8186E-9CC4-4A6E-BF0F-337E64254198}" destId="{6E35C6A9-80B9-4F75-A7A1-11036773F3CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9AF35089-BD6D-462C-AEBA-FE6D9F5D6732}" type="presParOf" srcId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" destId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14AA8185-9035-426A-AD42-08B0ED81811D}" type="presParOf" srcId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" destId="{9CFFFB56-617E-4130-8F9C-E688AAACC9AB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{56D310E7-6B43-41C3-9E2E-B5F0288485BD}" type="presParOf" srcId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" destId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FE312D5A-BFFA-4862-BBB8-931F9E6C2372}" type="presParOf" srcId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" destId="{596FB3DA-AB82-482E-B312-73312EC77D79}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F6DCDD15-899A-4DC8-8E76-C6610D0464E2}" type="presParOf" srcId="{596FB3DA-AB82-482E-B312-73312EC77D79}" destId="{6615EE38-7E53-40E4-8137-3772D64F6395}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{701EC95B-B616-43C0-9B2F-AA475A641513}" type="presParOf" srcId="{596FB3DA-AB82-482E-B312-73312EC77D79}" destId="{D03D9B7B-672C-4F9D-83D3-E769812ED4F9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{48764B73-9188-4463-B2C1-970B4CD6F4A5}" type="presParOf" srcId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" destId="{9E70B117-F7A5-4E06-9CAE-B381B4633804}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9FE357E1-E900-4192-9293-2920E136FE9B}" type="presParOf" srcId="{6DF7F0C8-7DE4-48EB-8219-1FE2723D6A24}" destId="{48F7A32D-E9B2-4C5A-B0B8-525EE9417F1B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{78F13B04-019E-4014-94D5-A56F1D5BAB36}" type="presParOf" srcId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" destId="{67E74EB0-17DC-4F82-8C9E-0D39E72F9E92}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{857433BD-1C12-45F1-8F6C-B17B066D7A2F}" type="presParOf" srcId="{1C19DD24-0303-4A65-BAC1-0E6164AFC6A6}" destId="{1B8ED305-1348-4538-888F-2682109B56E1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{567F949A-2902-4B91-A158-641383B93C0C}" type="presParOf" srcId="{1B8ED305-1348-4538-888F-2682109B56E1}" destId="{A4804E0C-91DB-42D0-85E1-4A5F0AF8D58E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3A1FD785-4397-469E-9CD3-592AA3050ED7}" type="presParOf" srcId="{A4804E0C-91DB-42D0-85E1-4A5F0AF8D58E}" destId="{1F0DD16A-0C11-4F77-BD37-9A87B880573B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CDA8715E-3904-4AAA-9827-E834FD161F96}" type="presParOf" srcId="{A4804E0C-91DB-42D0-85E1-4A5F0AF8D58E}" destId="{842359A9-6879-49EB-A9C2-64FFFE67A990}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7DA3F90C-0617-4CD6-A064-CFAC342A801D}" type="presParOf" srcId="{1B8ED305-1348-4538-888F-2682109B56E1}" destId="{08970006-FA8A-4B0D-A061-197F9C058BA3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E968746C-7DFC-4FCB-9B5C-AFF40EFB2437}" type="presParOf" srcId="{1B8ED305-1348-4538-888F-2682109B56E1}" destId="{1B77ECAD-5A39-4A0E-9CF5-4C2B4EF7F637}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B60A55F5-8D52-4190-9547-074CB9405EDA}" type="presParOf" srcId="{64A1C618-A691-4B04-B63C-BE8B135BBC6A}" destId="{66E74247-82A5-4BE5-811F-A5955C17E725}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E0A79F7B-DAE5-4EC2-A53C-285DDF709D54}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{73D97EFB-F263-419D-8CE2-E0E6D299657B}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C9C1DFAB-C76C-4321-8570-3DE850405529}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14A968AA-D697-4C7D-90C7-D3CE6B60F7AC}" type="presParOf" srcId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" destId="{E470973A-26E3-4993-B32B-888B75EE3C40}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{75575546-327D-425B-83C0-842ABFF2D0D1}" type="presParOf" srcId="{E470973A-26E3-4993-B32B-888B75EE3C40}" destId="{EA3031DA-452E-48AB-8884-90DD9B9FE4B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FFC3ADFD-4FA8-4521-9C26-F2EEEA23DA05}" type="presParOf" srcId="{E470973A-26E3-4993-B32B-888B75EE3C40}" destId="{D21580A5-D397-45B3-80E9-28A8C4974FE1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{158310AD-3B99-43E4-9E7C-4BC085CC696E}" type="presParOf" srcId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" destId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7FA142E6-5A94-4410-AAD7-F11703E2F2F2}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{AB784F33-57F7-4C6D-AB0F-5B4E36F64BE9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{80246EF6-B9EA-40F0-960C-3D99EE65E2B4}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{51EF208B-EED9-42A7-A02C-9494C378348C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EC8B0981-96AA-48AC-9CCD-235685968F3E}" type="presParOf" srcId="{51EF208B-EED9-42A7-A02C-9494C378348C}" destId="{8F4C0F99-FEE8-4208-80CB-9122D6AE24E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A0F34E73-9C37-4AE4-8CF8-3101D9C60179}" type="presParOf" srcId="{8F4C0F99-FEE8-4208-80CB-9122D6AE24E0}" destId="{285059D4-2F2E-47C5-A13B-CBC2DFC58F67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8F0FFA63-C408-40FD-A75E-BEB3F641234C}" type="presParOf" srcId="{8F4C0F99-FEE8-4208-80CB-9122D6AE24E0}" destId="{F9E6EAA4-9D7F-4E74-8327-739D12A3E9E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{073AB196-C1F8-4739-965E-926DF78220F9}" type="presParOf" srcId="{51EF208B-EED9-42A7-A02C-9494C378348C}" destId="{3C461E55-F975-460D-A59C-1C4AA4718E5F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{38A225AE-9226-474C-9A4D-78A164919B59}" type="presParOf" srcId="{51EF208B-EED9-42A7-A02C-9494C378348C}" destId="{663031A8-E8AA-471D-A655-53E7FB9FC7ED}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{85B1CB20-74C9-46B3-AE4A-4527A801CF32}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{3D7919E7-5D17-42DF-9E4C-BF8179D7258F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7B93B3C1-6130-49E0-ADEA-BA8FA722EF80}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{361D6233-757F-479B-BDB4-0BFC918005D8}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1BDE3ED9-99A4-4132-A6B0-3BFF5DF65346}" type="presParOf" srcId="{361D6233-757F-479B-BDB4-0BFC918005D8}" destId="{8E9D4D91-9885-441C-9B30-7DA0A7844A56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2C26627C-2288-42E2-8624-0E32BA558FF7}" type="presParOf" srcId="{8E9D4D91-9885-441C-9B30-7DA0A7844A56}" destId="{1EA0B823-77B8-405D-ADDD-4E8C84435BD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{71125B53-C22A-4E44-9FDA-FE16A5A214C6}" type="presParOf" srcId="{8E9D4D91-9885-441C-9B30-7DA0A7844A56}" destId="{445AFF96-378B-4189-9DBA-225F308C482E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2C9B7E6C-B1E0-4BEE-A9E4-D1F1FEF01F4F}" type="presParOf" srcId="{361D6233-757F-479B-BDB4-0BFC918005D8}" destId="{A33BB459-580A-47A0-BA57-A88B97FAB012}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9F936D4B-50DC-463D-8E08-B88CA29E50DA}" type="presParOf" srcId="{361D6233-757F-479B-BDB4-0BFC918005D8}" destId="{36C9881D-39D4-444B-B83F-61C2687E362C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5526F311-9339-45CA-91A0-196F9C143B5F}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{E973EB2C-DFF9-4FF3-8A65-B0E7B00CA824}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6AE65D7E-D88E-42F6-B3A1-EDC55DFF3364}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7CF11970-23EE-4BCD-B390-8375C58DA71E}" type="presParOf" srcId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" destId="{D23974EF-7343-42C6-B022-0873DB31464D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A051092A-A592-4DE4-9EDF-6E0B2B00E7B9}" type="presParOf" srcId="{D23974EF-7343-42C6-B022-0873DB31464D}" destId="{9E67B9C0-C5BD-4B78-B5DE-B36BEC695084}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B24A0D29-209E-486B-8B47-DDD7988F1682}" type="presParOf" srcId="{D23974EF-7343-42C6-B022-0873DB31464D}" destId="{12981B9F-B7DE-454C-AEC8-DFE63567AAE7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0AA477E0-5A70-4418-982B-CDD10AB767E4}" type="presParOf" srcId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" destId="{43854EC4-58BB-4D0F-95B4-DE28BED754CA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4B019AFA-8035-44D8-BA8E-C8BBB5CEDCA6}" type="presParOf" srcId="{54E8279C-6FC6-49BB-8015-3599B4105DD6}" destId="{03EFFF9F-53E6-4230-9352-C36A6925C376}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{251E72A3-7A62-43C6-B5EF-BBA1EF28CAC7}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{24F1A71B-7A94-43F2-9560-4A3ED8512987}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4C1A986B-291E-466D-A13D-E9842EDC5500}" type="presParOf" srcId="{3FA2491A-5EB6-4AEE-8F91-23A658ABF924}" destId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ADA0A3C8-980D-4E87-B484-364FE8673F49}" type="presParOf" srcId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" destId="{8502D447-C01A-446C-B4FA-8FA05ABD122E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F256D7B4-F6C4-4CD4-B7B2-2034F7413699}" type="presParOf" srcId="{8502D447-C01A-446C-B4FA-8FA05ABD122E}" destId="{3E6AE8F6-5471-4856-95DC-F5889B864C8D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5F55F099-0229-4BD2-9152-E497634BF222}" type="presParOf" srcId="{8502D447-C01A-446C-B4FA-8FA05ABD122E}" destId="{01D2A1C9-25C9-4939-BFDF-D03CD0EFBD56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{28DC4018-4AED-4174-814A-9AF21BE189BD}" type="presParOf" srcId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" destId="{9D63A18F-C603-4CB4-987E-985D937E7A41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E7C3F573-1E18-41F8-9432-16DC7012BB79}" type="presParOf" srcId="{75F5C3A7-297E-4C98-894C-16B6E478BFC6}" destId="{D370F1D9-3518-49A7-8DFD-CBE0057A4E0D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{50E31E58-04B3-4214-8C2E-5A2B211D27DD}" type="presParOf" srcId="{00260304-16DC-48CE-B5C3-B38EB52943CD}" destId="{23BCB62B-2101-483D-AB6D-FDCC5D8F0ACC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7D1A9E14-E4A1-4A53-93FB-D955BE559A81}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{74720BDC-17CE-4522-8393-2E0C61317C57}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2A75F93E-E516-4933-9FFA-F703DC3356A4}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4F7DCF10-087A-4F79-993C-605A9E32EAE1}" type="presParOf" srcId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" destId="{E03BD054-7F01-4443-B2A3-36F271E3E90F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{464CD609-AE4C-47C3-9B07-B1DD36BB5299}" type="presParOf" srcId="{E03BD054-7F01-4443-B2A3-36F271E3E90F}" destId="{C6CF2AFF-1826-4D66-8828-453EA18CEF24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1DEA7156-149F-416B-B777-3C413D850F93}" type="presParOf" srcId="{E03BD054-7F01-4443-B2A3-36F271E3E90F}" destId="{30889E66-01C5-4C33-992C-2E402AB3D57D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14C4A0AA-04AF-48E1-8C36-55974295162C}" type="presParOf" srcId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" destId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F48EC4D4-1AB5-4B87-A327-2FF67B04C7C8}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{64A5E671-AF1B-4F9F-A8EE-E3FA2FF66886}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B79FADCD-BFC2-4C90-A532-46BF145CC8A7}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{371D45F8-D6FD-4F3F-A45A-1ABB32E390AD}" type="presParOf" srcId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" destId="{25013327-C5E4-445B-8EAF-AC6BBE1A3924}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{63C58156-379C-4D0E-8953-43AE6862B7AB}" type="presParOf" srcId="{25013327-C5E4-445B-8EAF-AC6BBE1A3924}" destId="{3F9D0AA9-4977-4BA7-8F45-A803064E709C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{17C43A9D-4AC1-4279-B4B4-B3E480414EEE}" type="presParOf" srcId="{25013327-C5E4-445B-8EAF-AC6BBE1A3924}" destId="{A329A831-2AC3-4BC8-80F9-C5258C07FE6D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{193D8FCA-F58D-4634-9400-F75DCD948D9B}" type="presParOf" srcId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" destId="{45CF87F3-4A0C-4FC5-BCE9-4659AF808E38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0C281BAF-F077-467F-980E-F1DDDEE39C9E}" type="presParOf" srcId="{0E824D2F-ACDD-49F5-8480-2D44E5A6DC5F}" destId="{DCE05967-39DC-4F49-9C78-AAE793BE47A5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{39059195-0ECF-436E-AE98-7DAD67A00EAC}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{69ED22EF-22E3-471A-8564-55F307A34590}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5F1F5A47-BC34-4B5E-983A-61D3573FF3AE}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7BCE84E4-CA19-4BD0-930A-FF4BAD042E48}" type="presParOf" srcId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" destId="{B7F01E30-253F-4586-A75D-F43C3B34DF69}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{56DD50BA-1773-4C30-8BF9-2BDCF907DB67}" type="presParOf" srcId="{B7F01E30-253F-4586-A75D-F43C3B34DF69}" destId="{903372A5-C12B-4630-A721-25CCF0DB2C46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4566B49D-8BE0-47D4-9549-3877F2FB4E5A}" type="presParOf" srcId="{B7F01E30-253F-4586-A75D-F43C3B34DF69}" destId="{671DD9F9-BAD1-4938-8998-E8781880471B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C942BD63-F68D-4963-992A-24D09AC8DB2D}" type="presParOf" srcId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" destId="{4E657AC1-CF67-4E35-B335-DEDDCEBB8A89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{451E115D-132D-41C9-8383-043EF84E2985}" type="presParOf" srcId="{80DA549A-7B20-43E5-A5FC-442F060B041E}" destId="{C395C976-720C-4CC2-A594-A63D74157D2B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8ECA9F67-6EA7-461D-AF0A-3EF177067FC4}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{1C15A1DD-0285-4887-B165-FF74E04D0949}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E45617E4-6569-4206-AE77-BF804D073E8A}" type="presParOf" srcId="{40A34860-2312-4E6E-817E-5EFE2C643B2D}" destId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4655DA76-A2BF-4D5B-9852-493C2D0FF439}" type="presParOf" srcId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" destId="{5A03192A-E9D4-48DC-BD00-88CFD99F4D2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6A852118-3E6E-4CC1-B746-A38CAA222F02}" type="presParOf" srcId="{5A03192A-E9D4-48DC-BD00-88CFD99F4D2F}" destId="{BAB5EA54-AF8D-4102-8F0A-665560F8B412}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CF1A486B-E141-4287-B19A-4FD640B0B954}" type="presParOf" srcId="{5A03192A-E9D4-48DC-BD00-88CFD99F4D2F}" destId="{10B5C5C3-5223-4C8B-89C4-B013299DAE4D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{411E132E-21B2-4AD4-88BE-8276A3F12C40}" type="presParOf" srcId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" destId="{640F531F-FF27-4536-A3D6-7725E077BC56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{33B62272-EF8B-4857-8175-9062C8539F35}" type="presParOf" srcId="{E5E3E28A-7993-4ED3-B6C4-6583554C048D}" destId="{4F8912AC-0CA9-4397-9E80-AC2C072DC0AA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0CA95F41-04B0-4103-81F8-32AD22C9C225}" type="presParOf" srcId="{D4009BAD-17C5-4EE1-A92A-B920A7EF29E7}" destId="{98692865-6F0B-427C-A27A-3B8E071508F1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A76C63C2-BAAC-45A4-A743-7D0C31B18A8C}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{F94818B3-73D7-4223-9750-9FDA7ADAD87D}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E3C9C5D-EEAA-4C64-8731-63F92EE81670}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{D850F931-9CF8-4B07-A991-3DE4F044066D}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B822CE06-9006-4535-A6E1-F0CED9A7E8D3}" type="presParOf" srcId="{D850F931-9CF8-4B07-A991-3DE4F044066D}" destId="{4A358A32-17F2-49AF-BD1B-1600315DFB4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5D8CC578-EA83-44D1-B0F0-D89D9A0373E9}" type="presParOf" srcId="{4A358A32-17F2-49AF-BD1B-1600315DFB4F}" destId="{FE5B2CF9-00CD-48A6-9F83-42A39772587F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{341F6A70-8458-4C43-B006-3C8C05D3F323}" type="presParOf" srcId="{4A358A32-17F2-49AF-BD1B-1600315DFB4F}" destId="{B71AE4D1-1E4C-4F1F-97D1-8C2B4FDDCA08}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{741CFADA-B5A6-49EA-86C2-943368535C83}" type="presParOf" srcId="{D850F931-9CF8-4B07-A991-3DE4F044066D}" destId="{B230B44B-8AE2-4053-A79C-5774958D6EC6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A56F4C98-78CC-4F6F-BD78-908F6AA0EF12}" type="presParOf" srcId="{B230B44B-8AE2-4053-A79C-5774958D6EC6}" destId="{8BDAD81F-8000-4771-BAE6-0D4BFA7F5175}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5A6AA6E9-B5D6-47B0-A5D5-F81D7226CA86}" type="presParOf" srcId="{B230B44B-8AE2-4053-A79C-5774958D6EC6}" destId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D31DD021-F4D3-4E92-BC43-1319B819E26F}" type="presParOf" srcId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" destId="{87B42DC9-AF16-4840-95D1-7580C0152F88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CC7250AB-6816-4C30-B34C-D3F6FFD55D46}" type="presParOf" srcId="{87B42DC9-AF16-4840-95D1-7580C0152F88}" destId="{77952155-E0FD-4EE2-96B1-D088254C9B59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AED4EA33-75D6-4EEC-BCD9-58B3F891C0C4}" type="presParOf" srcId="{87B42DC9-AF16-4840-95D1-7580C0152F88}" destId="{7F2A31E2-397D-4422-9507-B8B1BD254951}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BEBE48DF-9B8F-4399-A00E-67F7814A5764}" type="presParOf" srcId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" destId="{63DB5D1A-915F-4707-A090-4DF863E50708}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5933C109-0419-4282-9E35-CE603EC54715}" type="presParOf" srcId="{17787B39-B705-4DBA-A4C3-66E0CC70A78C}" destId="{FE83F513-0E75-4548-B54A-FC9500C403B6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{35213B8F-6374-4102-B322-05E5EF8E4868}" type="presParOf" srcId="{B230B44B-8AE2-4053-A79C-5774958D6EC6}" destId="{F479933D-53B5-4E64-90CC-2D4C0B79ED01}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{94B91AE7-BE21-4E92-A7C4-FE240C2CCF1C}" type="presParOf" srcId="{B230B44B-8AE2-4053-A79C-5774958D6EC6}" destId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C7FBFB0E-86A0-424E-81F6-C6C7C4D05DE4}" type="presParOf" srcId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" destId="{CACCD6F3-0214-46C9-858F-510E913D8CCF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7899D53A-E7DE-4279-9030-9A52B190098C}" type="presParOf" srcId="{CACCD6F3-0214-46C9-858F-510E913D8CCF}" destId="{54F6C9DE-A44C-4C0B-9FDB-36A5506EE2AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E2030328-8183-440A-9725-612674A78D75}" type="presParOf" srcId="{CACCD6F3-0214-46C9-858F-510E913D8CCF}" destId="{C0E40011-B632-4811-89D2-059E24C62CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53BFC2D4-D963-435B-A413-505CACE48BF1}" type="presParOf" srcId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" destId="{23D495C1-75FA-446A-87D0-BE829333E8B3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A8D64049-9566-43D0-B03B-BBFC103930BD}" type="presParOf" srcId="{D7C3F2F5-D11E-4E70-B8E1-F5CF99BC7CD7}" destId="{3EB96572-B8F5-4F9F-9771-C6A77F87DF5C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1EAC63C4-F9CD-4A4F-9CC3-575FA920E708}" type="presParOf" srcId="{B230B44B-8AE2-4053-A79C-5774958D6EC6}" destId="{E9EE785A-AA56-4E55-8EDD-AE3836977539}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3ECCA55D-26F2-4846-8743-5D08E9B71DE8}" type="presParOf" srcId="{B230B44B-8AE2-4053-A79C-5774958D6EC6}" destId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C91FBFA2-7980-4379-9832-79061E355429}" type="presParOf" srcId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" destId="{86ECAFC2-7929-4F79-AC14-08791BEB9DA9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{87E86A72-5B0F-46B4-A12E-66B653A3E446}" type="presParOf" srcId="{86ECAFC2-7929-4F79-AC14-08791BEB9DA9}" destId="{131E6F1C-C65D-4491-9D89-3AC0C3BA2E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CCB3522A-A12C-4CB0-97BC-DE7DF41DACA4}" type="presParOf" srcId="{86ECAFC2-7929-4F79-AC14-08791BEB9DA9}" destId="{8290A075-2D5C-42B0-9F7D-CF79CA3A6DBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FC6A5B96-D8D3-4B1A-AB94-A6A3C1F7F90C}" type="presParOf" srcId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" destId="{19E21C11-BC6A-4242-BD47-DC8FF9CF46B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0A2AE6CD-B7B3-4688-A78E-CACC32E92D9B}" type="presParOf" srcId="{A999D857-9316-467F-8C2E-9FEBE1FAB1C1}" destId="{29DC647F-D61C-44CA-A5A7-F5BD262EB5DD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{242B4B5A-CC84-44DA-B1CF-97B1C32A6BB5}" type="presParOf" srcId="{D850F931-9CF8-4B07-A991-3DE4F044066D}" destId="{6098E486-4633-48EA-AD6D-F39DFFAE555E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EC86A2E7-B5BD-4EAC-8F86-923932F2877A}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{B31B1233-1A0C-4DBA-AA9F-47EED452E7DD}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D9383FE-3B59-4295-8BCE-BF88E566B6D8}" type="presParOf" srcId="{47E83014-2D75-42B7-BC8C-409A6001240D}" destId="{138911D0-D512-4830-929F-F9267A9C5CAE}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CB1BD55D-F1B8-42BB-9D47-7BBBD5795F6F}" type="presParOf" srcId="{138911D0-D512-4830-929F-F9267A9C5CAE}" destId="{2C09789D-FAF6-4FE9-BE6E-2B5984E1BE64}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FE7A430D-18C8-41AF-8AE7-8467F989953E}" type="presParOf" srcId="{2C09789D-FAF6-4FE9-BE6E-2B5984E1BE64}" destId="{A6D2DA4A-37AB-4549-A6D1-040D546DA136}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{26E0AD1B-1D34-42F6-B4F7-496AF9CE955B}" type="presParOf" srcId="{2C09789D-FAF6-4FE9-BE6E-2B5984E1BE64}" destId="{ECB704A2-FE9D-4E3F-B1A7-9D6DE255B3FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F30ABA03-A00D-4599-BE7C-1A6427CDFE1D}" type="presParOf" srcId="{138911D0-D512-4830-929F-F9267A9C5CAE}" destId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C472CF52-948F-443B-B300-40746955297F}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{D4B91063-D47B-4C6E-9712-C5344CD0AC7A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BE536408-4943-4AE2-8624-6A456BABC265}" type="presParOf" srcId="{76E5F555-C868-4FC6-A3CD-E3BC56FB56D6}" destId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D107DA7-0877-4C7C-B300-005A1A37603F}" type="presParOf" srcId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" destId="{3488136F-2A86-4DE8-9788-00AB02F29B43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{72617286-5885-40BC-B202-C39B83991543}" type="presParOf" srcId="{3488136F-2A86-4DE8-9788-00AB02F29B43}" destId="{906D0AE4-18EC-40AD-BFC3-C1582802AD6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B2A7CD05-116F-4F3F-A5DC-D50D57BA5DAA}" type="presParOf" srcId="{3488136F-2A86-4DE8-9788-00AB02F29B43}" destId="{4C4DB1A9-7280-4D75-A406-0142E97D1DD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{014DBD2A-C4E3-4DA9-91FE-69823061D74E}" type="presParOf" srcId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" destId="{56FA1189-1A2D-4B98-AFB3-56C54EEBDC7B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{429D223B-C2B0-4A91-B9A6-F6EC72C6092A}" type="presParOf" srcId="{E723FD15-1A7D-453C-AB3A-06C79A1A6373}" destId="{2AE3B63F-A10F-45EE-9FFF-D8C5E4A401CF}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F05FAD02-9E8D-4D98-AB31-3EA8D6371957}" type="presParOf" srcId="{138911D0-D512-4830-929F-F9267A9C5CAE}" destId="{9513E695-EAFF-41CA-9776-EBDD76750655}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E2E9731-DC18-4D50-81AD-D2291C2BD7A6}" type="presParOf" srcId="{0E7C9E82-50E4-4AA7-8A45-51040937F6F0}" destId="{2C39D43D-4037-4D24-A071-45D31B3618EE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -2551,15 +2857,15 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{E9EE785A-AA56-4E55-8EDD-AE3836977539}">
+    <dsp:sp modelId="{D4B91063-D47B-4C6E-9712-C5344CD0AC7A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7889529" y="1578594"/>
-          <a:ext cx="195499" cy="3375617"/>
+          <a:off x="9128749" y="1834094"/>
+          <a:ext cx="222541" cy="682460"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2573,10 +2879,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3375617"/>
+                <a:pt x="0" y="682460"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="3375617"/>
+                <a:pt x="222541" y="682460"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2610,15 +2916,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{F479933D-53B5-4E64-90CC-2D4C0B79ED01}">
+    <dsp:sp modelId="{B31B1233-1A0C-4DBA-AA9F-47EED452E7DD}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7889529" y="1578594"/>
-          <a:ext cx="195499" cy="2450255"/>
+          <a:off x="5234273" y="780731"/>
+          <a:ext cx="4487919" cy="311558"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2632,10 +2938,72 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2450255"/>
+                <a:pt x="0" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="2450255"/>
+                <a:pt x="4487919" y="155779"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4487919" y="311558"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E9EE785A-AA56-4E55-8EDD-AE3836977539}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7333581" y="1834094"/>
+          <a:ext cx="222541" cy="2789186"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2789186"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="222541" y="2789186"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2669,15 +3037,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{D4B91063-D47B-4C6E-9712-C5344CD0AC7A}">
+    <dsp:sp modelId="{F479933D-53B5-4E64-90CC-2D4C0B79ED01}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7889529" y="1578594"/>
-          <a:ext cx="195499" cy="1524892"/>
+          <a:off x="7333581" y="1834094"/>
+          <a:ext cx="222541" cy="1735823"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2691,10 +3059,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1524892"/>
+                <a:pt x="0" y="1735823"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="1524892"/>
+                <a:pt x="222541" y="1735823"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2735,8 +3103,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7889529" y="1578594"/>
-          <a:ext cx="195499" cy="599530"/>
+          <a:off x="7333581" y="1834094"/>
+          <a:ext cx="222541" cy="682460"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2750,10 +3118,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="599530"/>
+                <a:pt x="0" y="682460"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="599530"/>
+                <a:pt x="222541" y="682460"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2787,15 +3155,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{B31B1233-1A0C-4DBA-AA9F-47EED452E7DD}">
+    <dsp:sp modelId="{F94818B3-73D7-4223-9750-9FDA7ADAD87D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5256808" y="653231"/>
-          <a:ext cx="3154052" cy="273698"/>
+          <a:off x="5234273" y="780731"/>
+          <a:ext cx="2692751" cy="311558"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2809,13 +3177,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="136849"/>
+                <a:pt x="0" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3154052" y="136849"/>
+                <a:pt x="2692751" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3154052" y="273698"/>
+                <a:pt x="2692751" y="311558"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2849,15 +3217,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{24F1A71B-7A94-43F2-9560-4A3ED8512987}">
+    <dsp:sp modelId="{1C15A1DD-0285-4887-B165-FF74E04D0949}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6312503" y="1578594"/>
-          <a:ext cx="195499" cy="2450255"/>
+          <a:off x="5538413" y="1834094"/>
+          <a:ext cx="222541" cy="2789186"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2871,10 +3239,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2450255"/>
+                <a:pt x="0" y="2789186"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="2450255"/>
+                <a:pt x="222541" y="2789186"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2908,15 +3276,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{E973EB2C-DFF9-4FF3-8A65-B0E7B00CA824}">
+    <dsp:sp modelId="{69ED22EF-22E3-471A-8564-55F307A34590}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6312503" y="1578594"/>
-          <a:ext cx="195499" cy="1524892"/>
+          <a:off x="5538413" y="1834094"/>
+          <a:ext cx="222541" cy="1735823"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2930,10 +3298,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1524892"/>
+                <a:pt x="0" y="1735823"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="1524892"/>
+                <a:pt x="222541" y="1735823"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2967,15 +3335,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{3D7919E7-5D17-42DF-9E4C-BF8179D7258F}">
+    <dsp:sp modelId="{64A5E671-AF1B-4F9F-A8EE-E3FA2FF66886}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6312503" y="1578594"/>
-          <a:ext cx="195499" cy="599530"/>
+          <a:off x="5538413" y="1834094"/>
+          <a:ext cx="222541" cy="682460"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2989,10 +3357,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="599530"/>
+                <a:pt x="0" y="682460"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="599530"/>
+                <a:pt x="222541" y="682460"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3026,15 +3394,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{73D97EFB-F263-419D-8CE2-E0E6D299657B}">
+    <dsp:sp modelId="{74720BDC-17CE-4522-8393-2E0C61317C57}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5256808" y="653231"/>
-          <a:ext cx="1577026" cy="273698"/>
+          <a:off x="5234273" y="780731"/>
+          <a:ext cx="897583" cy="311558"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3048,13 +3416,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="136849"/>
+                <a:pt x="0" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1577026" y="136849"/>
+                <a:pt x="897583" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1577026" y="273698"/>
+                <a:pt x="897583" y="311558"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3088,15 +3456,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{67E74EB0-17DC-4F82-8C9E-0D39E72F9E92}">
+    <dsp:sp modelId="{24F1A71B-7A94-43F2-9560-4A3ED8512987}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4735477" y="1578594"/>
-          <a:ext cx="195499" cy="1524892"/>
+          <a:off x="3743245" y="1834094"/>
+          <a:ext cx="222541" cy="3842549"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3110,10 +3478,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1524892"/>
+                <a:pt x="0" y="3842549"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="1524892"/>
+                <a:pt x="222541" y="3842549"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3147,15 +3515,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{9CFFFB56-617E-4130-8F9C-E688AAACC9AB}">
+    <dsp:sp modelId="{E973EB2C-DFF9-4FF3-8A65-B0E7B00CA824}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4735477" y="1578594"/>
-          <a:ext cx="195499" cy="599530"/>
+          <a:off x="3743245" y="1834094"/>
+          <a:ext cx="222541" cy="2789186"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3169,10 +3537,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="599530"/>
+                <a:pt x="0" y="2789186"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="599530"/>
+                <a:pt x="222541" y="2789186"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3206,15 +3574,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{120A195E-63F0-48D8-AB4C-8B344F1D0D39}">
+    <dsp:sp modelId="{3D7919E7-5D17-42DF-9E4C-BF8179D7258F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5211088" y="653231"/>
-          <a:ext cx="91440" cy="273698"/>
+          <a:off x="3743245" y="1834094"/>
+          <a:ext cx="222541" cy="1735823"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3225,10 +3593,134 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="273698"/>
+                <a:pt x="0" y="1735823"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="222541" y="1735823"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{AB784F33-57F7-4C6D-AB0F-5B4E36F64BE9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3743245" y="1834094"/>
+          <a:ext cx="222541" cy="682460"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="682460"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="222541" y="682460"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{73D97EFB-F263-419D-8CE2-E0E6D299657B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4336689" y="780731"/>
+          <a:ext cx="897583" cy="311558"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="897583" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="897583" y="155779"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="155779"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="311558"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3262,15 +3754,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{46B51BE7-FE7D-4458-8074-4109AFCDF84D}">
+    <dsp:sp modelId="{67E74EB0-17DC-4F82-8C9E-0D39E72F9E92}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3158451" y="1578594"/>
-          <a:ext cx="195499" cy="1524892"/>
+          <a:off x="1948077" y="1834094"/>
+          <a:ext cx="222541" cy="1735823"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3284,10 +3776,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1524892"/>
+                <a:pt x="0" y="1735823"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="1524892"/>
+                <a:pt x="222541" y="1735823"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3321,15 +3813,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{AD6E2D00-01A4-4215-84E5-B13631ACF8D1}">
+    <dsp:sp modelId="{9CFFFB56-617E-4130-8F9C-E688AAACC9AB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3158451" y="1578594"/>
-          <a:ext cx="195499" cy="599530"/>
+          <a:off x="1948077" y="1834094"/>
+          <a:ext cx="222541" cy="682460"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3343,10 +3835,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="599530"/>
+                <a:pt x="0" y="682460"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="599530"/>
+                <a:pt x="222541" y="682460"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3380,15 +3872,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{FA4F7265-DC00-4775-B267-75D9CFD467D4}">
+    <dsp:sp modelId="{120A195E-63F0-48D8-AB4C-8B344F1D0D39}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3679782" y="653231"/>
-          <a:ext cx="1577026" cy="273698"/>
+          <a:off x="2541521" y="780731"/>
+          <a:ext cx="2692751" cy="311558"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3399,16 +3891,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1577026" y="0"/>
+                <a:pt x="2692751" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1577026" y="136849"/>
+                <a:pt x="2692751" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="136849"/>
+                <a:pt x="0" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="273698"/>
+                <a:pt x="0" y="311558"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3442,15 +3934,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{1C15A1DD-0285-4887-B165-FF74E04D0949}">
+    <dsp:sp modelId="{46B51BE7-FE7D-4458-8074-4109AFCDF84D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1581425" y="1578594"/>
-          <a:ext cx="195499" cy="2450255"/>
+          <a:off x="152909" y="1834094"/>
+          <a:ext cx="222541" cy="2789186"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3464,10 +3956,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2450255"/>
+                <a:pt x="0" y="2789186"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="2450255"/>
+                <a:pt x="222541" y="2789186"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3501,15 +3993,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{69ED22EF-22E3-471A-8564-55F307A34590}">
+    <dsp:sp modelId="{AD6E2D00-01A4-4215-84E5-B13631ACF8D1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1581425" y="1578594"/>
-          <a:ext cx="195499" cy="1524892"/>
+          <a:off x="152909" y="1834094"/>
+          <a:ext cx="222541" cy="1735823"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3523,10 +4015,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1524892"/>
+                <a:pt x="0" y="1735823"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="1524892"/>
+                <a:pt x="222541" y="1735823"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3560,15 +4052,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{64A5E671-AF1B-4F9F-A8EE-E3FA2FF66886}">
+    <dsp:sp modelId="{09241FA8-A4CC-435C-A06D-20EC18D60E51}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1581425" y="1578594"/>
-          <a:ext cx="195499" cy="599530"/>
+          <a:off x="152909" y="1834094"/>
+          <a:ext cx="222541" cy="682460"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3582,10 +4074,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="599530"/>
+                <a:pt x="0" y="682460"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="195499" y="599530"/>
+                <a:pt x="222541" y="682460"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3619,15 +4111,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{74720BDC-17CE-4522-8393-2E0C61317C57}">
+    <dsp:sp modelId="{FA4F7265-DC00-4775-B267-75D9CFD467D4}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2102756" y="653231"/>
-          <a:ext cx="3154052" cy="273698"/>
+          <a:off x="746353" y="780731"/>
+          <a:ext cx="4487919" cy="311558"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3638,16 +4130,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3154052" y="0"/>
+                <a:pt x="4487919" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3154052" y="136849"/>
+                <a:pt x="4487919" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="136849"/>
+                <a:pt x="0" y="155779"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="273698"/>
+                <a:pt x="0" y="311558"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3688,8 +4180,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4605144" y="1568"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="4492468" y="38926"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3731,12 +4223,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3749,25 +4241,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
             <a:t>Включение с нажатой кнопкой</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4605144" y="1568"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="4492468" y="38926"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C6CF2AFF-1826-4D66-8828-453EA18CEF24}">
+    <dsp:sp modelId="{B5B01E53-A3C2-4361-9EF5-14D4A5CD494E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1451092" y="926930"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="4548" y="1092289"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3809,12 +4301,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3827,25 +4319,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Кнопка отжата</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Упало энергопотребление малины</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1451092" y="926930"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="4548" y="1092289"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{3F9D0AA9-4977-4BA7-8F45-A803064E709C}">
+    <dsp:sp modelId="{8FC8280A-5F2C-46BB-9A10-6EE1F208ECC7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1776924" y="1852292"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="375450" y="2145653"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3887,12 +4379,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3905,25 +4397,171 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Установка сигнала завершения работы ОС малины</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Выдержка условия по счётчику 1</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1776924" y="1852292"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="375450" y="2145653"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{903372A5-C12B-4630-A721-25CCF0DB2C46}">
+    <dsp:sp modelId="{5BF88FF6-9DFD-4AC8-8A16-2C35CF475A62}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1776924" y="2777655"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="375450" y="3199016"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Отключение питания малины</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="375450" y="3199016"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{79DF38A6-3C7F-490A-80F7-D37D9B816EB0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="375450" y="4252379"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Отключение светодиода</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="375450" y="4252379"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{91376554-53E3-4E4C-8159-1E384A1451E0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1799716" y="1092289"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3965,12 +4603,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3983,25 +4621,541 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Таймер отключения</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Сработал таймер отключения</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1776924" y="2777655"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="1799716" y="1092289"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{BAB5EA54-AF8D-4102-8F0A-665560F8B412}">
+    <dsp:sp modelId="{6615EE38-7E53-40E4-8137-3772D64F6395}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1776924" y="3703017"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="2170618" y="2145653"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Отключение питания малины</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2170618" y="2145653"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1F0DD16A-0C11-4F77-BD37-9A87B880573B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2170618" y="3199016"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Отключение светодиода</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2170618" y="3199016"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EA3031DA-452E-48AB-8884-90DD9B9FE4B3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3594884" y="1092289"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Упало входное напряжение</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3594884" y="1092289"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{285059D4-2F2E-47C5-A13B-CBC2DFC58F67}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3965786" y="2145653"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Выдержка условия по счётчику </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3965786" y="2145653"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1EA0B823-77B8-405D-ADDD-4E8C84435BD6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3965786" y="3199016"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Установка сигнала завершения работы ОС малины</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3965786" y="3199016"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9E67B9C0-C5BD-4B78-B5DE-B36BEC695084}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3965786" y="4252379"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Таймер отключения</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3965786" y="4252379"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3E6AE8F6-5471-4856-95DC-F5889B864C8D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3965786" y="5305742"/>
+          <a:ext cx="1483609" cy="741804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Включение светодиода</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3965786" y="5305742"/>
+        <a:ext cx="1483609" cy="741804"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C6CF2AFF-1826-4D66-8828-453EA18CEF24}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5390052" y="1092289"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4043,12 +5197,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4061,36 +5215,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Включение светодиода</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Кнопка отжата</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1776924" y="3703017"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="5390052" y="1092289"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B5B01E53-A3C2-4361-9EF5-14D4A5CD494E}">
+    <dsp:sp modelId="{3F9D0AA9-4977-4BA7-8F45-A803064E709C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3028118" y="926930"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="5760954" y="2145653"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -4121,12 +5270,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4139,36 +5288,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Упало энергопотребление малины</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Установка сигнала завершения работы ОС малины</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3028118" y="926930"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="5760954" y="2145653"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{5BF88FF6-9DFD-4AC8-8A16-2C35CF475A62}">
+    <dsp:sp modelId="{903372A5-C12B-4630-A721-25CCF0DB2C46}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3353950" y="1852292"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="5760954" y="3199016"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -4199,12 +5343,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4217,36 +5361,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Отключение питания малины</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Таймер отключения</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3353950" y="1852292"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="5760954" y="3199016"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{79DF38A6-3C7F-490A-80F7-D37D9B816EB0}">
+    <dsp:sp modelId="{BAB5EA54-AF8D-4102-8F0A-665560F8B412}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3353950" y="2777655"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="5760954" y="4252379"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -4277,12 +5416,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4295,36 +5434,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Отключение светодиода</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Включение светодиода</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3353950" y="2777655"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="5760954" y="4252379"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{91376554-53E3-4E4C-8159-1E384A1451E0}">
+    <dsp:sp modelId="{FE5B2CF9-00CD-48A6-9F83-42A39772587F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4605144" y="926930"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="7185220" y="1092289"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -4355,12 +5489,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4373,36 +5507,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Сработал таймер отключения</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Выросло входное напряжение и не отжата кнопка</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4605144" y="926930"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="7185220" y="1092289"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6615EE38-7E53-40E4-8137-3772D64F6395}">
+    <dsp:sp modelId="{77952155-E0FD-4EE2-96B1-D088254C9B59}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4930976" y="1852292"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="7556122" y="2145653"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -4433,12 +5562,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4451,36 +5580,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Отключение питания малины</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Отмена таймера отключения</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4930976" y="1852292"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="7556122" y="2145653"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1F0DD16A-0C11-4F77-BD37-9A87B880573B}">
+    <dsp:sp modelId="{54F6C9DE-A44C-4C0B-9FDB-36A5506EE2AF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4930976" y="2777655"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="7556122" y="3199016"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -4511,12 +5635,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4529,36 +5653,31 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Отключение светодиода</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Снятие сигнала завершения работы ОС малины</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4930976" y="2777655"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="7556122" y="3199016"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{EA3031DA-452E-48AB-8884-90DD9B9FE4B3}">
+    <dsp:sp modelId="{131E6F1C-C65D-4491-9D89-3AC0C3BA2E99}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6182170" y="926930"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="7556122" y="4252379"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -4589,12 +5708,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4607,248 +5726,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Упало входное напряжение</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Подаём питание на малину</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6182170" y="926930"/>
-        <a:ext cx="1303327" cy="651663"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{1EA0B823-77B8-405D-ADDD-4E8C84435BD6}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6508002" y="1852292"/>
-          <a:ext cx="1303327" cy="651663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Завершение работы ОС малины</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6508002" y="1852292"/>
-        <a:ext cx="1303327" cy="651663"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{9E67B9C0-C5BD-4B78-B5DE-B36BEC695084}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6508002" y="2777655"/>
-          <a:ext cx="1303327" cy="651663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Таймер отключения</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6508002" y="2777655"/>
-        <a:ext cx="1303327" cy="651663"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{3E6AE8F6-5471-4856-95DC-F5889B864C8D}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6508002" y="3703017"/>
-          <a:ext cx="1303327" cy="651663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Включение светодиода</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6508002" y="3703017"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="7556122" y="4252379"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A6D2DA4A-37AB-4549-A6D1-040D546DA136}">
@@ -4858,8 +5743,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7759197" y="926930"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="8980388" y="1092289"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4896,12 +5781,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4914,25 +5799,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
             <a:t>Обычная работа</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7759197" y="926930"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="8980388" y="1092289"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{77952155-E0FD-4EE2-96B1-D088254C9B59}">
+    <dsp:sp modelId="{906D0AE4-18EC-40AD-BFC3-C1582802AD6D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8085028" y="1852292"/>
-          <a:ext cx="1303327" cy="651663"/>
+          <a:off x="9351290" y="2145653"/>
+          <a:ext cx="1483609" cy="741804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4969,12 +5854,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4987,233 +5872,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Отмена таймера отключения</a:t>
+            <a:rPr lang="ru-RU" sz="1300" kern="1200"/>
+            <a:t>Мигаем светодиодом</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8085028" y="1852292"/>
-        <a:ext cx="1303327" cy="651663"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{906D0AE4-18EC-40AD-BFC3-C1582802AD6D}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8085028" y="2777655"/>
-          <a:ext cx="1303327" cy="651663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Снятие сигнала завершения работы ОС малины</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8085028" y="2777655"/>
-        <a:ext cx="1303327" cy="651663"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{54F6C9DE-A44C-4C0B-9FDB-36A5506EE2AF}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8085028" y="3703017"/>
-          <a:ext cx="1303327" cy="651663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Если малина выключена, то включаем её</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8085028" y="3703017"/>
-        <a:ext cx="1303327" cy="651663"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{131E6F1C-C65D-4491-9D89-3AC0C3BA2E99}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8085028" y="4628380"/>
-          <a:ext cx="1303327" cy="651663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1200" kern="1200"/>
-            <a:t>Мигаем светодиодом</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8085028" y="4628380"/>
-        <a:ext cx="1303327" cy="651663"/>
+        <a:off x="9351290" y="2145653"/>
+        <a:ext cx="1483609" cy="741804"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -7412,8 +8078,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7741,7 +8407,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
